--- a/CommonDataSet_scraped.xlsx
+++ b/CommonDataSet_scraped.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ63"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,820 +542,844 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ofVermont</t>
+          <t>Emory</t>
         </is>
       </c>
       <c r="B2">
         <v>2022</v>
       </c>
       <c r="C2">
-        <v>4034</v>
+        <v>3011</v>
       </c>
       <c r="D2">
-        <v>7116</v>
+        <v>4011</v>
       </c>
       <c r="E2">
-        <v>11898</v>
+        <v>7101</v>
       </c>
       <c r="F2">
-        <v>2190</v>
+        <v>7751</v>
       </c>
       <c r="G2">
-        <v>170</v>
+        <v>1283</v>
       </c>
       <c r="H2">
-        <v>330</v>
+        <v>1663</v>
       </c>
       <c r="K2">
-        <v>9918</v>
+        <v>13161</v>
       </c>
       <c r="L2">
-        <v>20313</v>
+        <v>20018</v>
       </c>
       <c r="M2">
-        <v>5459</v>
+        <v>1653</v>
       </c>
       <c r="N2">
-        <v>12616</v>
+        <v>2114</v>
       </c>
       <c r="O2">
-        <v>987</v>
+        <v>636</v>
       </c>
       <c r="P2">
-        <v>2001</v>
+        <v>788</v>
       </c>
       <c r="Q2">
-        <v>37.5</v>
+        <v>41</v>
       </c>
       <c r="R2">
-        <v>14.4</v>
-      </c>
-      <c r="S2">
-        <v>640</v>
-      </c>
-      <c r="T2">
-        <v>720</v>
+        <v>23</v>
       </c>
       <c r="U2">
-        <v>620</v>
+        <v>730</v>
       </c>
       <c r="V2">
-        <v>710</v>
+        <v>790</v>
       </c>
       <c r="W2">
-        <v>1280</v>
+        <v>1450</v>
       </c>
       <c r="X2">
-        <v>1420</v>
+        <v>1530</v>
       </c>
       <c r="Y2">
-        <v>40.5</v>
+        <v>81</v>
       </c>
       <c r="Z2">
-        <v>29.97</v>
+        <v>17.7</v>
+      </c>
+      <c r="AA2">
+        <v>3560</v>
+      </c>
+      <c r="AB2">
+        <v>940</v>
       </c>
       <c r="AC2">
-        <v>1133</v>
+        <v>2020</v>
       </c>
       <c r="AD2">
-        <v>838</v>
+        <v>386</v>
       </c>
       <c r="AE2">
-        <v>332</v>
+        <v>138</v>
       </c>
       <c r="AG2">
-        <v>2.2</v>
+        <v>20</v>
       </c>
       <c r="AH2">
-        <v>2.9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ofVermont</t>
+          <t>Emory</t>
         </is>
       </c>
       <c r="B3">
         <v>2021</v>
       </c>
       <c r="C3">
-        <v>4058</v>
+        <v>2960</v>
       </c>
       <c r="D3">
-        <v>6784</v>
+        <v>4068</v>
       </c>
       <c r="E3">
-        <v>11626</v>
+        <v>7130</v>
       </c>
       <c r="F3">
-        <v>2200</v>
+        <v>7651</v>
       </c>
       <c r="G3">
-        <v>220</v>
+        <v>1261</v>
       </c>
       <c r="H3">
-        <v>327</v>
+        <v>1636</v>
       </c>
       <c r="J3">
-        <v>88.2</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="K3">
-        <v>9110</v>
+        <v>12736</v>
       </c>
       <c r="L3">
-        <v>16449</v>
+        <v>20699</v>
       </c>
       <c r="M3">
-        <v>5097</v>
+        <v>1801</v>
       </c>
       <c r="N3">
-        <v>11136</v>
+        <v>2563</v>
       </c>
       <c r="O3">
-        <v>954</v>
+        <v>598</v>
       </c>
       <c r="P3">
-        <v>1969</v>
-      </c>
-      <c r="Q3">
-        <v>34.4</v>
-      </c>
-      <c r="R3">
-        <v>13.7</v>
+        <v>896</v>
       </c>
       <c r="S3">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="T3">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="U3">
-        <v>610</v>
+        <v>730</v>
       </c>
       <c r="V3">
-        <v>700</v>
+        <v>790</v>
       </c>
       <c r="W3">
-        <v>1250</v>
+        <v>1430</v>
       </c>
       <c r="X3">
-        <v>1400</v>
+        <v>1530</v>
       </c>
       <c r="Y3">
-        <v>40.4</v>
+        <v>76</v>
       </c>
       <c r="Z3">
-        <v>25.6</v>
+        <v>14.36</v>
+      </c>
+      <c r="AA3">
+        <v>3213</v>
+      </c>
+      <c r="AB3">
+        <v>844</v>
       </c>
       <c r="AC3">
-        <v>1359</v>
+        <v>1633</v>
       </c>
       <c r="AD3">
-        <v>841</v>
+        <v>551</v>
       </c>
       <c r="AE3">
-        <v>350</v>
+        <v>215</v>
       </c>
       <c r="AG3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AH3">
-        <v>6.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ofVermont</t>
+          <t>Emory</t>
         </is>
       </c>
       <c r="B4">
         <v>2020</v>
       </c>
       <c r="C4">
-        <v>4001</v>
+        <v>2765</v>
       </c>
       <c r="D4">
-        <v>6234</v>
+        <v>4049</v>
       </c>
       <c r="E4">
-        <v>11136</v>
+        <v>7010</v>
       </c>
       <c r="F4">
-        <v>2156</v>
+        <v>6992</v>
       </c>
       <c r="G4">
-        <v>307</v>
+        <v>1075</v>
       </c>
       <c r="H4">
-        <v>325</v>
+        <v>1601</v>
       </c>
       <c r="K4">
-        <v>7101</v>
+        <v>11372</v>
       </c>
       <c r="L4">
-        <v>11463</v>
+        <v>16839</v>
       </c>
       <c r="M4">
-        <v>4718</v>
+        <v>2246</v>
       </c>
       <c r="N4">
-        <v>8522</v>
+        <v>3161</v>
       </c>
       <c r="O4">
-        <v>908</v>
+        <v>558</v>
       </c>
       <c r="P4">
-        <v>1557</v>
+        <v>785</v>
       </c>
       <c r="Q4">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="R4">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="S4">
-        <v>590</v>
+        <v>680</v>
       </c>
       <c r="T4">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="U4">
-        <v>570</v>
+        <v>700</v>
       </c>
       <c r="V4">
-        <v>670</v>
+        <v>790</v>
       </c>
       <c r="W4">
-        <v>1180</v>
+        <v>1400</v>
       </c>
       <c r="X4">
-        <v>1340</v>
+        <v>1510</v>
       </c>
       <c r="Y4">
-        <v>33</v>
+        <v>82.5</v>
       </c>
       <c r="Z4">
-        <v>16.98</v>
+        <v>13.9</v>
+      </c>
+      <c r="AA4">
+        <v>2962</v>
+      </c>
+      <c r="AB4">
+        <v>803</v>
       </c>
       <c r="AC4">
-        <v>1078</v>
+        <v>1368</v>
       </c>
       <c r="AD4">
-        <v>777</v>
+        <v>446</v>
       </c>
       <c r="AE4">
-        <v>309</v>
+        <v>144</v>
       </c>
       <c r="AG4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AH4">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A1ofVermont</t>
+          <t>A1Emory</t>
         </is>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5">
-        <v>4246</v>
+        <v>2835</v>
       </c>
       <c r="D5">
-        <v>6255</v>
+        <v>4177</v>
       </c>
       <c r="E5">
-        <v>11443</v>
+        <v>7118</v>
       </c>
       <c r="F5">
-        <v>2105</v>
+        <v>7299</v>
       </c>
       <c r="G5">
-        <v>510</v>
+        <v>1141</v>
       </c>
       <c r="H5">
-        <v>312</v>
+        <v>1513</v>
       </c>
       <c r="I5">
-        <v>0.763877715</v>
+        <v>90</v>
       </c>
       <c r="J5">
-        <v>87.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="K5">
-        <v>7557</v>
+        <v>11956</v>
       </c>
       <c r="L5">
-        <v>11676</v>
+        <v>18061</v>
       </c>
       <c r="M5">
-        <v>4764</v>
+        <v>2005</v>
       </c>
       <c r="N5">
-        <v>8179</v>
+        <v>2677</v>
       </c>
       <c r="O5">
-        <v>997</v>
+        <v>595</v>
       </c>
       <c r="P5">
-        <v>1629</v>
+        <v>779</v>
       </c>
       <c r="Q5">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="R5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="S5">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="T5">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="U5">
-        <v>580</v>
+        <v>690</v>
       </c>
       <c r="V5">
-        <v>680</v>
+        <v>790</v>
       </c>
       <c r="Y5">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="Z5">
-        <v>17.75</v>
+        <v>15.6</v>
+      </c>
+      <c r="AA5">
+        <v>3125</v>
+      </c>
+      <c r="AB5">
+        <v>704</v>
       </c>
       <c r="AC5">
-        <v>1397</v>
+        <v>1231</v>
       </c>
       <c r="AD5">
-        <v>1010</v>
+        <v>289</v>
       </c>
       <c r="AE5">
-        <v>387</v>
+        <v>96</v>
       </c>
       <c r="AF5">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG5">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="AH5">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A1ofVermont</t>
+          <t>ofVermont</t>
         </is>
       </c>
       <c r="B6">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C6">
-        <v>4287</v>
+        <v>4034</v>
       </c>
       <c r="D6">
-        <v>6147</v>
+        <v>7116</v>
       </c>
       <c r="E6">
-        <v>11328</v>
+        <v>11898</v>
       </c>
       <c r="F6">
-        <v>2067</v>
+        <v>2190</v>
       </c>
       <c r="G6">
-        <v>645</v>
+        <v>170</v>
       </c>
       <c r="H6">
-        <v>312</v>
-      </c>
-      <c r="J6">
-        <v>86.8</v>
+        <v>330</v>
       </c>
       <c r="K6">
-        <v>8411</v>
+        <v>9918</v>
       </c>
       <c r="L6">
-        <v>12852</v>
+        <v>20313</v>
       </c>
       <c r="M6">
-        <v>5236</v>
+        <v>5459</v>
       </c>
       <c r="N6">
-        <v>9129</v>
+        <v>12616</v>
       </c>
       <c r="O6">
-        <v>941</v>
+        <v>987</v>
       </c>
       <c r="P6">
-        <v>1571</v>
+        <v>2001</v>
       </c>
       <c r="Q6">
-        <v>77</v>
+        <v>37.5</v>
       </c>
       <c r="R6">
-        <v>37</v>
+        <v>14.4</v>
       </c>
       <c r="S6">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="T6">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="U6">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="V6">
-        <v>680</v>
+        <v>710</v>
+      </c>
+      <c r="W6">
+        <v>1280</v>
+      </c>
+      <c r="X6">
+        <v>1420</v>
       </c>
       <c r="Y6">
-        <v>37</v>
-      </c>
-      <c r="AA6">
-        <v>12428</v>
-      </c>
-      <c r="AB6">
-        <v>9618</v>
+        <v>40.5</v>
+      </c>
+      <c r="Z6">
+        <v>29.97</v>
       </c>
       <c r="AC6">
-        <v>1614</v>
+        <v>1133</v>
       </c>
       <c r="AD6">
-        <v>1192</v>
+        <v>838</v>
       </c>
       <c r="AE6">
-        <v>447</v>
-      </c>
-      <c r="AF6">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="AG6">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="AH6">
-        <v>7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Temple</t>
+          <t>ofVermont</t>
         </is>
       </c>
       <c r="B7">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C7">
-        <v>9580</v>
+        <v>4058</v>
       </c>
       <c r="D7">
-        <v>12446</v>
+        <v>6784</v>
       </c>
       <c r="E7">
-        <v>24106</v>
+        <v>11626</v>
       </c>
       <c r="F7">
-        <v>9124</v>
+        <v>2200</v>
       </c>
       <c r="G7">
-        <v>858</v>
+        <v>220</v>
       </c>
       <c r="H7">
-        <v>3353</v>
+        <v>327</v>
+      </c>
+      <c r="J7">
+        <v>88.2</v>
       </c>
       <c r="K7">
-        <v>15129</v>
+        <v>9110</v>
       </c>
       <c r="L7">
-        <v>23537</v>
+        <v>16449</v>
       </c>
       <c r="M7">
-        <v>11880</v>
+        <v>5097</v>
       </c>
       <c r="N7">
-        <v>18937</v>
+        <v>11136</v>
       </c>
       <c r="O7">
-        <v>1955</v>
+        <v>954</v>
       </c>
       <c r="P7">
-        <v>2659</v>
+        <v>1969</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>34.4</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>13.7</v>
       </c>
       <c r="S7">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="T7">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="U7">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="V7">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="W7">
-        <v>1130</v>
+        <v>1250</v>
       </c>
       <c r="X7">
-        <v>1360</v>
+        <v>1400</v>
+      </c>
+      <c r="Y7">
+        <v>40.4</v>
       </c>
       <c r="Z7">
-        <v>18.99</v>
+        <v>25.6</v>
       </c>
       <c r="AC7">
-        <v>3052</v>
+        <v>1359</v>
       </c>
       <c r="AD7">
-        <v>2373</v>
+        <v>841</v>
       </c>
       <c r="AE7">
-        <v>1231</v>
+        <v>350</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Temple</t>
+          <t>ofVermont</t>
         </is>
       </c>
       <c r="B8">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C8">
-        <v>10320</v>
+        <v>4001</v>
       </c>
       <c r="D8">
-        <v>13407</v>
+        <v>6234</v>
       </c>
       <c r="E8">
-        <v>25931</v>
+        <v>11136</v>
       </c>
       <c r="F8">
-        <v>9691</v>
+        <v>2156</v>
       </c>
       <c r="G8">
-        <v>872</v>
+        <v>307</v>
       </c>
       <c r="H8">
-        <v>3309</v>
+        <v>325</v>
       </c>
       <c r="K8">
-        <v>14732</v>
+        <v>7101</v>
       </c>
       <c r="L8">
-        <v>22839</v>
+        <v>11463</v>
       </c>
       <c r="M8">
-        <v>10260</v>
+        <v>4718</v>
       </c>
       <c r="N8">
-        <v>16916</v>
+        <v>8522</v>
       </c>
       <c r="O8">
-        <v>2047</v>
+        <v>908</v>
       </c>
       <c r="P8">
-        <v>2834</v>
+        <v>1557</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="S8">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="T8">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="U8">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="V8">
         <v>670</v>
       </c>
       <c r="W8">
-        <v>1120</v>
+        <v>1180</v>
       </c>
       <c r="X8">
-        <v>1320</v>
+        <v>1340</v>
+      </c>
+      <c r="Y8">
+        <v>33</v>
       </c>
       <c r="Z8">
-        <v>13.99</v>
+        <v>16.98</v>
       </c>
       <c r="AC8">
-        <v>3249</v>
+        <v>1078</v>
       </c>
       <c r="AD8">
-        <v>2734</v>
+        <v>777</v>
       </c>
       <c r="AE8">
-        <v>1551</v>
+        <v>309</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Temple</t>
+          <t>A1ofVermont</t>
         </is>
       </c>
       <c r="B9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C9">
-        <v>10946</v>
+        <v>4246</v>
       </c>
       <c r="D9">
-        <v>13938</v>
+        <v>6255</v>
       </c>
       <c r="E9">
-        <v>27306</v>
+        <v>11443</v>
       </c>
       <c r="F9">
-        <v>9983</v>
+        <v>2105</v>
       </c>
       <c r="G9">
-        <v>1084</v>
+        <v>510</v>
       </c>
       <c r="H9">
-        <v>3417</v>
+        <v>312</v>
+      </c>
+      <c r="I9">
+        <v>0.763877715</v>
       </c>
       <c r="J9">
-        <v>87</v>
+        <v>87.2</v>
       </c>
       <c r="K9">
-        <v>13799</v>
+        <v>7557</v>
       </c>
       <c r="L9">
-        <v>19998</v>
+        <v>11676</v>
       </c>
       <c r="M9">
-        <v>9712</v>
+        <v>4764</v>
       </c>
       <c r="N9">
-        <v>14430</v>
+        <v>8179</v>
       </c>
       <c r="O9">
-        <v>1967</v>
+        <v>997</v>
       </c>
       <c r="P9">
-        <v>2838</v>
+        <v>1629</v>
       </c>
       <c r="Q9">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R9">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="S9">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T9">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="U9">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="V9">
-        <v>640</v>
-      </c>
-      <c r="W9">
-        <v>1110</v>
-      </c>
-      <c r="X9">
-        <v>1270</v>
+        <v>680</v>
+      </c>
+      <c r="Y9">
+        <v>34</v>
       </c>
       <c r="Z9">
-        <v>13.97</v>
+        <v>17.75</v>
       </c>
       <c r="AC9">
-        <v>3909</v>
+        <v>1397</v>
       </c>
       <c r="AD9">
-        <v>3205</v>
+        <v>1010</v>
       </c>
       <c r="AE9">
-        <v>1793</v>
+        <v>387</v>
       </c>
       <c r="AF9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="AG9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AH9">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A1Temple</t>
+          <t>A1ofVermont</t>
         </is>
       </c>
       <c r="B10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C10">
-        <v>11835</v>
+        <v>4287</v>
       </c>
       <c r="D10">
-        <v>14375</v>
+        <v>6147</v>
       </c>
       <c r="E10">
-        <v>28726</v>
+        <v>11328</v>
       </c>
       <c r="F10">
-        <v>10096</v>
+        <v>2067</v>
       </c>
       <c r="G10">
-        <v>1495</v>
+        <v>645</v>
       </c>
       <c r="H10">
-        <v>3482</v>
+        <v>312</v>
+      </c>
+      <c r="J10">
+        <v>86.8</v>
       </c>
       <c r="K10">
-        <v>14385</v>
+        <v>8411</v>
       </c>
       <c r="L10">
-        <v>21196</v>
+        <v>12852</v>
       </c>
       <c r="M10">
-        <v>8434</v>
+        <v>5236</v>
       </c>
       <c r="N10">
-        <v>12934</v>
+        <v>9129</v>
       </c>
       <c r="O10">
-        <v>2033</v>
+        <v>941</v>
       </c>
       <c r="P10">
-        <v>2908</v>
+        <v>1571</v>
       </c>
       <c r="Q10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="S10">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="T10">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="U10">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="V10">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="Y10">
-        <v>36</v>
-      </c>
-      <c r="Z10">
-        <v>14.54</v>
+        <v>37</v>
+      </c>
+      <c r="AA10">
+        <v>12428</v>
+      </c>
+      <c r="AB10">
+        <v>9618</v>
       </c>
       <c r="AC10">
-        <v>4404</v>
+        <v>1614</v>
       </c>
       <c r="AD10">
-        <v>3571</v>
+        <v>1192</v>
       </c>
       <c r="AE10">
-        <v>2210</v>
+        <v>447</v>
       </c>
       <c r="AF10">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="AG10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH10">
         <v>7</v>
@@ -1409,6 +1433,9 @@
       <c r="Q11">
         <v>27</v>
       </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
       <c r="S11">
         <v>570</v>
       </c>
@@ -1494,6 +1521,9 @@
       <c r="Q12">
         <v>30</v>
       </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
       <c r="S12">
         <v>560</v>
       </c>
@@ -1582,6 +1612,9 @@
       <c r="Q13">
         <v>74</v>
       </c>
+      <c r="R13">
+        <v>14</v>
+      </c>
       <c r="S13">
         <v>550</v>
       </c>
@@ -1670,6 +1703,9 @@
       <c r="Q14">
         <v>76</v>
       </c>
+      <c r="R14">
+        <v>17</v>
+      </c>
       <c r="S14">
         <v>570</v>
       </c>
@@ -1710,799 +1746,839 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="B15">
         <v>2022</v>
       </c>
       <c r="C15">
-        <v>15377</v>
+        <v>9580</v>
       </c>
       <c r="D15">
-        <v>13379</v>
+        <v>12446</v>
+      </c>
+      <c r="E15">
+        <v>24106</v>
+      </c>
+      <c r="F15">
+        <v>9124</v>
       </c>
       <c r="G15">
-        <v>988</v>
+        <v>858</v>
       </c>
       <c r="H15">
-        <v>1897</v>
+        <v>3353</v>
       </c>
       <c r="K15">
-        <v>26690</v>
+        <v>15129</v>
       </c>
       <c r="L15">
-        <v>28170</v>
+        <v>23537</v>
       </c>
       <c r="M15">
-        <v>74</v>
+        <v>11880</v>
       </c>
       <c r="N15">
-        <v>84</v>
+        <v>18937</v>
       </c>
       <c r="O15">
-        <v>3559</v>
+        <v>1955</v>
       </c>
       <c r="P15">
-        <v>3453</v>
+        <v>2659</v>
+      </c>
+      <c r="Q15">
+        <v>27</v>
       </c>
       <c r="S15">
-        <v>640</v>
+        <v>570</v>
       </c>
       <c r="T15">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="U15">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="V15">
-        <v>640</v>
-      </c>
-      <c r="Y15">
-        <v>26</v>
+        <v>680</v>
+      </c>
+      <c r="W15">
+        <v>1130</v>
+      </c>
+      <c r="X15">
+        <v>1360</v>
+      </c>
+      <c r="Z15">
+        <v>18.99</v>
       </c>
       <c r="AC15">
-        <v>1352</v>
+        <v>3052</v>
       </c>
       <c r="AD15">
-        <v>1202</v>
+        <v>2373</v>
       </c>
       <c r="AE15">
-        <v>150</v>
+        <v>1231</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="B16">
         <v>2021</v>
       </c>
+      <c r="C16">
+        <v>10320</v>
+      </c>
+      <c r="D16">
+        <v>13407</v>
+      </c>
+      <c r="E16">
+        <v>25931</v>
+      </c>
+      <c r="F16">
+        <v>9691</v>
+      </c>
+      <c r="G16">
+        <v>872</v>
+      </c>
+      <c r="H16">
+        <v>3309</v>
+      </c>
+      <c r="K16">
+        <v>14732</v>
+      </c>
+      <c r="L16">
+        <v>22839</v>
+      </c>
+      <c r="M16">
+        <v>10260</v>
+      </c>
+      <c r="N16">
+        <v>16916</v>
+      </c>
+      <c r="O16">
+        <v>2047</v>
+      </c>
+      <c r="P16">
+        <v>2834</v>
+      </c>
+      <c r="Q16">
+        <v>30</v>
+      </c>
       <c r="S16">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="T16">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="U16">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="V16">
-        <v>637</v>
-      </c>
-      <c r="Y16">
-        <v>26</v>
+        <v>670</v>
+      </c>
+      <c r="W16">
+        <v>1120</v>
+      </c>
+      <c r="X16">
+        <v>1320</v>
+      </c>
+      <c r="Z16">
+        <v>13.99</v>
       </c>
       <c r="AC16">
-        <v>1451</v>
+        <v>3249</v>
       </c>
       <c r="AD16">
-        <v>1278</v>
+        <v>2734</v>
       </c>
       <c r="AE16">
-        <v>173</v>
-      </c>
-      <c r="AF16">
-        <v>13</v>
+        <v>1551</v>
       </c>
       <c r="AG16">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="B17">
         <v>2020</v>
       </c>
       <c r="C17">
-        <v>14831</v>
+        <v>10946</v>
       </c>
       <c r="D17">
-        <v>12856</v>
+        <v>13938</v>
+      </c>
+      <c r="E17">
+        <v>27306</v>
+      </c>
+      <c r="F17">
+        <v>9983</v>
+      </c>
+      <c r="G17">
+        <v>1084</v>
+      </c>
+      <c r="H17">
+        <v>3417</v>
+      </c>
+      <c r="J17">
+        <v>87</v>
+      </c>
+      <c r="K17">
+        <v>13799</v>
+      </c>
+      <c r="L17">
+        <v>19998</v>
+      </c>
+      <c r="M17">
+        <v>9712</v>
+      </c>
+      <c r="N17">
+        <v>14430</v>
+      </c>
+      <c r="O17">
+        <v>1967</v>
+      </c>
+      <c r="P17">
+        <v>2838</v>
+      </c>
+      <c r="Q17">
+        <v>74</v>
       </c>
       <c r="S17">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="T17">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="U17">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="V17">
-        <v>619</v>
-      </c>
-      <c r="Y17">
-        <v>26</v>
+        <v>640</v>
+      </c>
+      <c r="W17">
+        <v>1110</v>
+      </c>
+      <c r="X17">
+        <v>1270</v>
+      </c>
+      <c r="Z17">
+        <v>13.97</v>
       </c>
       <c r="AC17">
-        <v>1341</v>
+        <v>3909</v>
       </c>
       <c r="AD17">
-        <v>1180</v>
+        <v>3205</v>
       </c>
       <c r="AE17">
-        <v>161</v>
+        <v>1793</v>
       </c>
       <c r="AF17">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AG17">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="AH17">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>A1Temple</t>
         </is>
       </c>
       <c r="B18">
         <v>2019</v>
       </c>
       <c r="C18">
-        <v>15581</v>
+        <v>11835</v>
       </c>
       <c r="D18">
-        <v>13253</v>
+        <v>14375</v>
+      </c>
+      <c r="E18">
+        <v>28726</v>
+      </c>
+      <c r="F18">
+        <v>10096</v>
+      </c>
+      <c r="G18">
+        <v>1495</v>
+      </c>
+      <c r="H18">
+        <v>3482</v>
+      </c>
+      <c r="K18">
+        <v>14385</v>
+      </c>
+      <c r="L18">
+        <v>21196</v>
+      </c>
+      <c r="M18">
+        <v>8434</v>
+      </c>
+      <c r="N18">
+        <v>12934</v>
+      </c>
+      <c r="O18">
+        <v>2033</v>
+      </c>
+      <c r="P18">
+        <v>2908</v>
+      </c>
+      <c r="Q18">
+        <v>76</v>
       </c>
       <c r="S18">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="T18">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="U18">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="V18">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="Y18">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="Z18">
+        <v>14.54</v>
       </c>
       <c r="AC18">
-        <v>1476</v>
+        <v>4404</v>
       </c>
       <c r="AD18">
-        <v>1314</v>
+        <v>3571</v>
       </c>
       <c r="AE18">
-        <v>162</v>
+        <v>2210</v>
       </c>
       <c r="AF18">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AG18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AH18">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ofCalifornia,SantaCruz</t>
+          <t>UCB</t>
         </is>
       </c>
       <c r="B19">
         <v>2022</v>
       </c>
       <c r="C19">
-        <v>8037</v>
+        <v>15377</v>
       </c>
       <c r="D19">
-        <v>8058</v>
-      </c>
-      <c r="E19">
-        <v>17502</v>
-      </c>
-      <c r="F19">
-        <v>1976</v>
+        <v>13379</v>
       </c>
       <c r="G19">
-        <v>794</v>
+        <v>988</v>
       </c>
       <c r="H19">
-        <v>4063</v>
+        <v>1897</v>
       </c>
       <c r="K19">
-        <v>28150</v>
+        <v>26690</v>
       </c>
       <c r="L19">
-        <v>34925</v>
+        <v>28170</v>
       </c>
       <c r="M19">
-        <v>11881</v>
+        <v>74</v>
       </c>
       <c r="N19">
-        <v>17784</v>
+        <v>84</v>
       </c>
       <c r="O19">
-        <v>1617</v>
+        <v>3559</v>
       </c>
       <c r="P19">
-        <v>2037</v>
-      </c>
-      <c r="Z19">
-        <v>55.6</v>
+        <v>3453</v>
+      </c>
+      <c r="S19">
+        <v>640</v>
+      </c>
+      <c r="T19">
+        <v>635</v>
+      </c>
+      <c r="U19">
+        <v>570</v>
+      </c>
+      <c r="V19">
+        <v>640</v>
+      </c>
+      <c r="Y19">
+        <v>26</v>
       </c>
       <c r="AC19">
-        <v>11678</v>
+        <v>1352</v>
       </c>
       <c r="AD19">
-        <v>7126</v>
+        <v>1202</v>
       </c>
       <c r="AE19">
-        <v>1217</v>
-      </c>
-      <c r="AG19">
-        <v>4.1</v>
-      </c>
-      <c r="AH19">
-        <v>4.8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ofCalifornia,SantaCruz</t>
+          <t>UCB</t>
         </is>
       </c>
       <c r="B20">
         <v>2021</v>
       </c>
-      <c r="C20">
-        <v>8561</v>
-      </c>
-      <c r="D20">
-        <v>7907</v>
-      </c>
-      <c r="E20">
-        <v>17864</v>
-      </c>
-      <c r="F20">
-        <v>1977</v>
-      </c>
-      <c r="G20">
-        <v>1019</v>
-      </c>
-      <c r="H20">
-        <v>4078</v>
-      </c>
-      <c r="J20">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="K20">
-        <v>26865</v>
-      </c>
-      <c r="L20">
-        <v>33196</v>
-      </c>
-      <c r="M20">
-        <v>14586</v>
-      </c>
-      <c r="N20">
-        <v>20763</v>
-      </c>
-      <c r="O20">
-        <v>1816</v>
-      </c>
-      <c r="P20">
-        <v>2226</v>
+      <c r="S20">
+        <v>590</v>
+      </c>
+      <c r="T20">
+        <v>635</v>
+      </c>
+      <c r="U20">
+        <v>580</v>
+      </c>
+      <c r="V20">
+        <v>637</v>
       </c>
       <c r="Y20">
-        <v>94</v>
-      </c>
-      <c r="Z20">
-        <v>6.34</v>
+        <v>26</v>
       </c>
       <c r="AC20">
-        <v>13219</v>
+        <v>1451</v>
       </c>
       <c r="AD20">
-        <v>7730</v>
+        <v>1278</v>
       </c>
       <c r="AE20">
-        <v>1725</v>
+        <v>173</v>
+      </c>
+      <c r="AF20">
+        <v>13</v>
       </c>
       <c r="AG20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AH20">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ofCalifornia,SantaCruz</t>
+          <t>UCB</t>
         </is>
       </c>
       <c r="B21">
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>8695</v>
+        <v>14831</v>
       </c>
       <c r="D21">
-        <v>7826</v>
-      </c>
-      <c r="E21">
-        <v>17207</v>
-      </c>
-      <c r="F21">
-        <v>1954</v>
-      </c>
-      <c r="G21">
-        <v>1313</v>
-      </c>
-      <c r="H21">
-        <v>3962</v>
-      </c>
-      <c r="K21">
-        <v>24322</v>
-      </c>
-      <c r="L21">
-        <v>29719</v>
-      </c>
-      <c r="M21">
-        <v>16029</v>
-      </c>
-      <c r="N21">
-        <v>19145</v>
-      </c>
-      <c r="O21">
-        <v>2130</v>
-      </c>
-      <c r="P21">
-        <v>1992</v>
-      </c>
-      <c r="Q21">
-        <v>86</v>
+        <v>12856</v>
       </c>
       <c r="S21">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="T21">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="U21">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="V21">
-        <v>700</v>
-      </c>
-      <c r="W21">
-        <v>1160</v>
-      </c>
-      <c r="X21">
-        <v>1350</v>
+        <v>619</v>
       </c>
       <c r="Y21">
-        <v>94</v>
-      </c>
-      <c r="Z21">
-        <v>3.7</v>
+        <v>26</v>
       </c>
       <c r="AC21">
-        <v>12566</v>
+        <v>1341</v>
       </c>
       <c r="AD21">
-        <v>8037</v>
+        <v>1180</v>
       </c>
       <c r="AE21">
-        <v>1647</v>
+        <v>161</v>
+      </c>
+      <c r="AF21">
+        <v>10</v>
       </c>
       <c r="AG21">
-        <v>2.5</v>
-      </c>
-      <c r="AH21">
-        <v>5.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UCB</t>
+        </is>
+      </c>
       <c r="B22">
         <v>2019</v>
       </c>
       <c r="C22">
-        <v>8862</v>
+        <v>15581</v>
       </c>
       <c r="D22">
-        <v>8132</v>
-      </c>
-      <c r="E22">
-        <v>17517</v>
-      </c>
-      <c r="F22">
+        <v>13253</v>
+      </c>
+      <c r="S22">
+        <v>580</v>
+      </c>
+      <c r="T22">
+        <v>625</v>
+      </c>
+      <c r="U22">
+        <v>560</v>
+      </c>
+      <c r="V22">
+        <v>626</v>
+      </c>
+      <c r="Y22">
+        <v>26</v>
+      </c>
+      <c r="AC22">
+        <v>1476</v>
+      </c>
+      <c r="AD22">
+        <v>1314</v>
+      </c>
+      <c r="AE22">
+        <v>162</v>
+      </c>
+      <c r="AF22">
+        <v>12</v>
+      </c>
+      <c r="AG22">
+        <v>12</v>
+      </c>
+      <c r="AH22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ofCalifornia,SantaCruz</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>2022</v>
+      </c>
+      <c r="C23">
+        <v>8037</v>
+      </c>
+      <c r="D23">
+        <v>8058</v>
+      </c>
+      <c r="E23">
+        <v>17502</v>
+      </c>
+      <c r="F23">
+        <v>1976</v>
+      </c>
+      <c r="G23">
+        <v>794</v>
+      </c>
+      <c r="H23">
+        <v>4063</v>
+      </c>
+      <c r="K23">
+        <v>28150</v>
+      </c>
+      <c r="L23">
+        <v>34925</v>
+      </c>
+      <c r="M23">
+        <v>11881</v>
+      </c>
+      <c r="N23">
+        <v>17784</v>
+      </c>
+      <c r="O23">
+        <v>1617</v>
+      </c>
+      <c r="P23">
+        <v>2037</v>
+      </c>
+      <c r="Z23">
+        <v>55.6</v>
+      </c>
+      <c r="AC23">
+        <v>11678</v>
+      </c>
+      <c r="AD23">
+        <v>7126</v>
+      </c>
+      <c r="AE23">
+        <v>1217</v>
+      </c>
+      <c r="AG23">
+        <v>4.1</v>
+      </c>
+      <c r="AH23">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ofCalifornia,SantaCruz</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>2021</v>
+      </c>
+      <c r="C24">
+        <v>8561</v>
+      </c>
+      <c r="D24">
+        <v>7907</v>
+      </c>
+      <c r="E24">
+        <v>17864</v>
+      </c>
+      <c r="F24">
         <v>1977</v>
       </c>
-      <c r="G22">
-        <v>1576</v>
-      </c>
-      <c r="H22">
-        <v>3834</v>
-      </c>
-      <c r="K22">
-        <v>24375</v>
-      </c>
-      <c r="L22">
-        <v>29434</v>
-      </c>
-      <c r="M22">
-        <v>12565</v>
-      </c>
-      <c r="N22">
-        <v>15050</v>
-      </c>
-      <c r="O22">
-        <v>1924</v>
-      </c>
-      <c r="P22">
-        <v>1755</v>
-      </c>
-      <c r="U22">
-        <v>600</v>
-      </c>
-      <c r="V22">
-        <v>710</v>
-      </c>
-      <c r="Y22">
-        <v>96</v>
-      </c>
-      <c r="Z22">
-        <v>3.97</v>
-      </c>
-      <c r="AC22">
-        <v>11791</v>
-      </c>
-      <c r="AD22">
-        <v>7186</v>
-      </c>
-      <c r="AE22">
-        <v>1469</v>
-      </c>
-      <c r="AF22">
-        <v>6.9</v>
-      </c>
-      <c r="AG22">
-        <v>6.9</v>
-      </c>
-      <c r="AH22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23">
-        <v>2018</v>
-      </c>
-      <c r="C23">
-        <v>8878</v>
-      </c>
-      <c r="D23">
-        <v>8377</v>
-      </c>
-      <c r="E23">
-        <v>17792</v>
-      </c>
-      <c r="F23">
-        <v>1908</v>
-      </c>
-      <c r="G23">
-        <v>1394</v>
-      </c>
-      <c r="H23">
-        <v>3970</v>
-      </c>
-      <c r="K23">
-        <v>24581</v>
-      </c>
-      <c r="L23">
-        <v>30774</v>
-      </c>
-      <c r="M23">
-        <v>11892</v>
-      </c>
-      <c r="N23">
-        <v>14332</v>
-      </c>
-      <c r="O23">
-        <v>1828</v>
-      </c>
-      <c r="P23">
-        <v>1682</v>
-      </c>
-      <c r="U23">
-        <v>590</v>
-      </c>
-      <c r="V23">
-        <v>720</v>
-      </c>
-      <c r="Y23">
-        <v>96</v>
-      </c>
-      <c r="AC23">
-        <v>11813</v>
-      </c>
-      <c r="AD23">
-        <v>7987</v>
-      </c>
-      <c r="AE23">
-        <v>1815</v>
-      </c>
-      <c r="AF23">
-        <v>7.3</v>
-      </c>
-      <c r="AG23">
-        <v>7.3</v>
-      </c>
-      <c r="AH23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24">
-        <v>2017</v>
-      </c>
-      <c r="E24">
-        <v>17577</v>
-      </c>
-      <c r="F24">
-        <v>1880</v>
-      </c>
       <c r="G24">
-        <v>1090</v>
+        <v>1019</v>
+      </c>
+      <c r="H24">
+        <v>4078</v>
+      </c>
+      <c r="J24">
+        <v>88.59999999999999</v>
       </c>
       <c r="K24">
-        <v>23102</v>
+        <v>26865</v>
       </c>
       <c r="L24">
-        <v>28963</v>
+        <v>33196</v>
       </c>
       <c r="M24">
-        <v>12071</v>
+        <v>14586</v>
       </c>
       <c r="N24">
-        <v>14572</v>
+        <v>20763</v>
       </c>
       <c r="O24">
-        <v>1949</v>
+        <v>1816</v>
       </c>
       <c r="P24">
-        <v>1895</v>
-      </c>
-      <c r="U24">
-        <v>580</v>
-      </c>
-      <c r="V24">
-        <v>690</v>
+        <v>2226</v>
       </c>
       <c r="Y24">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="Z24">
+        <v>6.34</v>
       </c>
       <c r="AC24">
-        <v>10104</v>
+        <v>13219</v>
       </c>
       <c r="AD24">
-        <v>6014</v>
+        <v>7730</v>
       </c>
       <c r="AE24">
-        <v>1231</v>
-      </c>
-      <c r="AF24">
-        <v>6</v>
+        <v>1725</v>
       </c>
       <c r="AG24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH24">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ofWisconsin--Madison</t>
+          <t>ofCalifornia,SantaCruz</t>
         </is>
       </c>
       <c r="B25">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C25">
-        <v>15790</v>
+        <v>8695</v>
       </c>
       <c r="D25">
-        <v>18098</v>
+        <v>7826</v>
       </c>
       <c r="E25">
-        <v>37230</v>
+        <v>17207</v>
       </c>
       <c r="F25">
-        <v>12656</v>
+        <v>1954</v>
       </c>
       <c r="G25">
-        <v>3860</v>
+        <v>1313</v>
       </c>
       <c r="H25">
-        <v>3523</v>
-      </c>
-      <c r="J25">
-        <v>94.2</v>
+        <v>3962</v>
       </c>
       <c r="K25">
-        <v>29575</v>
+        <v>24322</v>
       </c>
       <c r="L25">
-        <v>30685</v>
+        <v>29719</v>
       </c>
       <c r="M25">
-        <v>13390</v>
+        <v>16029</v>
       </c>
       <c r="N25">
-        <v>16156</v>
+        <v>19145</v>
       </c>
       <c r="O25">
-        <v>3904</v>
+        <v>2130</v>
       </c>
       <c r="P25">
-        <v>4701</v>
+        <v>1992</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="S25">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="T25">
-        <v>730</v>
+        <v>670</v>
       </c>
       <c r="U25">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="V25">
-        <v>780</v>
+        <v>700</v>
       </c>
       <c r="W25">
-        <v>1370</v>
+        <v>1160</v>
       </c>
       <c r="X25">
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="Y25">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="Z25">
-        <v>48.2</v>
+        <v>3.7</v>
       </c>
       <c r="AC25">
-        <v>3974</v>
+        <v>12566</v>
       </c>
       <c r="AD25">
-        <v>2102</v>
+        <v>8037</v>
       </c>
       <c r="AE25">
-        <v>1154</v>
+        <v>1647</v>
       </c>
       <c r="AG25">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="AH25">
-        <v>8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ofWisconsin--Madison</t>
-        </is>
-      </c>
       <c r="B26">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>15141</v>
+        <v>8862</v>
       </c>
       <c r="D26">
-        <v>16937</v>
+        <v>8132</v>
       </c>
       <c r="E26">
-        <v>35474</v>
+        <v>17517</v>
       </c>
       <c r="F26">
-        <v>12458</v>
+        <v>1977</v>
       </c>
       <c r="G26">
-        <v>3436</v>
+        <v>1576</v>
       </c>
       <c r="H26">
-        <v>2963</v>
+        <v>3834</v>
       </c>
       <c r="K26">
-        <v>26118</v>
+        <v>24375</v>
       </c>
       <c r="L26">
-        <v>27711</v>
+        <v>29434</v>
       </c>
       <c r="M26">
-        <v>14695</v>
+        <v>12565</v>
       </c>
       <c r="N26">
-        <v>17771</v>
+        <v>15050</v>
       </c>
       <c r="O26">
-        <v>3779</v>
+        <v>1924</v>
       </c>
       <c r="P26">
-        <v>4663</v>
-      </c>
-      <c r="Q26">
-        <v>15</v>
-      </c>
-      <c r="S26">
-        <v>650</v>
-      </c>
-      <c r="T26">
-        <v>730</v>
+        <v>1755</v>
       </c>
       <c r="U26">
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="V26">
-        <v>780</v>
-      </c>
-      <c r="W26">
-        <v>1350</v>
-      </c>
-      <c r="X26">
-        <v>1480</v>
+        <v>710</v>
       </c>
       <c r="Y26">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="Z26">
-        <v>45</v>
+        <v>3.97</v>
       </c>
       <c r="AC26">
-        <v>3528</v>
+        <v>11791</v>
       </c>
       <c r="AD26">
-        <v>2075</v>
+        <v>7186</v>
       </c>
       <c r="AE26">
-        <v>1136</v>
+        <v>1469</v>
+      </c>
+      <c r="AF26">
+        <v>6.9</v>
       </c>
       <c r="AG26">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="AH26">
         <v>8</v>
@@ -2510,1151 +2586,1087 @@
     </row>
     <row r="27">
       <c r="B27">
-        <v>2020</v>
+        <v>2018</v>
+      </c>
+      <c r="C27">
+        <v>8878</v>
+      </c>
+      <c r="D27">
+        <v>8377</v>
+      </c>
+      <c r="E27">
+        <v>17792</v>
+      </c>
+      <c r="F27">
+        <v>1908</v>
       </c>
       <c r="G27">
-        <v>3093</v>
+        <v>1394</v>
       </c>
       <c r="H27">
-        <v>2578</v>
+        <v>3970</v>
       </c>
       <c r="K27">
-        <v>23046</v>
+        <v>24581</v>
       </c>
       <c r="L27">
-        <v>22895</v>
+        <v>30774</v>
       </c>
       <c r="M27">
-        <v>12600</v>
+        <v>11892</v>
       </c>
       <c r="N27">
-        <v>13689</v>
+        <v>14332</v>
       </c>
       <c r="O27">
-        <v>3438</v>
+        <v>1828</v>
       </c>
       <c r="P27">
-        <v>3818</v>
-      </c>
-      <c r="Q27">
-        <v>27</v>
+        <v>1682</v>
       </c>
       <c r="U27">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V27">
-        <v>770</v>
+        <v>720</v>
       </c>
       <c r="Y27">
-        <v>51</v>
-      </c>
-      <c r="Z27">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AC27">
-        <v>3525</v>
+        <v>11813</v>
       </c>
       <c r="AD27">
-        <v>1830</v>
+        <v>7987</v>
       </c>
       <c r="AE27">
-        <v>1010</v>
+        <v>1815</v>
+      </c>
+      <c r="AF27">
+        <v>7.3</v>
       </c>
       <c r="AG27">
-        <v>99</v>
+        <v>7.3</v>
       </c>
       <c r="AH27">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="B28">
-        <v>2019</v>
-      </c>
-      <c r="C28">
-        <v>14434</v>
-      </c>
-      <c r="D28">
-        <v>15764</v>
+        <v>2017</v>
       </c>
       <c r="E28">
-        <v>33456</v>
+        <v>17577</v>
       </c>
       <c r="F28">
-        <v>11861</v>
+        <v>1880</v>
       </c>
       <c r="G28">
-        <v>3659</v>
-      </c>
-      <c r="H28">
-        <v>2307</v>
+        <v>1090</v>
       </c>
       <c r="K28">
-        <v>21694</v>
+        <v>23102</v>
       </c>
       <c r="L28">
-        <v>22227</v>
+        <v>28963</v>
       </c>
       <c r="M28">
-        <v>11117</v>
+        <v>12071</v>
       </c>
       <c r="N28">
-        <v>12170</v>
+        <v>14572</v>
       </c>
       <c r="O28">
-        <v>3489</v>
+        <v>1949</v>
       </c>
       <c r="P28">
-        <v>4045</v>
+        <v>1895</v>
       </c>
       <c r="U28">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="V28">
-        <v>780</v>
-      </c>
-      <c r="Z28">
-        <v>43.1</v>
+        <v>690</v>
+      </c>
+      <c r="Y28">
+        <v>96</v>
       </c>
       <c r="AC28">
-        <v>3464</v>
+        <v>10104</v>
       </c>
       <c r="AD28">
-        <v>1584</v>
+        <v>6014</v>
       </c>
       <c r="AE28">
-        <v>889</v>
+        <v>1231</v>
       </c>
       <c r="AF28">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="AG28">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="AH28">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ofWisconsin--Madison</t>
+        </is>
+      </c>
       <c r="B29">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C29">
-        <v>14181</v>
+        <v>15790</v>
       </c>
       <c r="D29">
-        <v>15231</v>
+        <v>18098</v>
       </c>
       <c r="E29">
-        <v>32648</v>
+        <v>37230</v>
       </c>
       <c r="F29">
-        <v>11763</v>
+        <v>12656</v>
       </c>
       <c r="G29">
-        <v>3558</v>
+        <v>3860</v>
       </c>
       <c r="H29">
-        <v>2060</v>
+        <v>3523</v>
+      </c>
+      <c r="J29">
+        <v>94.2</v>
       </c>
       <c r="K29">
-        <v>21306</v>
+        <v>29575</v>
       </c>
       <c r="L29">
-        <v>21435</v>
+        <v>30685</v>
       </c>
       <c r="M29">
-        <v>10418</v>
+        <v>13390</v>
       </c>
       <c r="N29">
-        <v>11681</v>
+        <v>16156</v>
       </c>
       <c r="O29">
-        <v>3241</v>
+        <v>3904</v>
       </c>
       <c r="P29">
-        <v>3610</v>
+        <v>4701</v>
+      </c>
+      <c r="Q29">
+        <v>18</v>
+      </c>
+      <c r="S29">
+        <v>660</v>
+      </c>
+      <c r="T29">
+        <v>730</v>
       </c>
       <c r="U29">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="V29">
         <v>780</v>
       </c>
+      <c r="W29">
+        <v>1370</v>
+      </c>
+      <c r="X29">
+        <v>1500</v>
+      </c>
+      <c r="Y29">
+        <v>54</v>
+      </c>
+      <c r="Z29">
+        <v>48.2</v>
+      </c>
       <c r="AC29">
-        <v>3700</v>
+        <v>3974</v>
       </c>
       <c r="AD29">
-        <v>1975</v>
+        <v>2102</v>
       </c>
       <c r="AE29">
-        <v>1141</v>
-      </c>
-      <c r="AF29">
-        <v>98</v>
+        <v>1154</v>
       </c>
       <c r="AG29">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="AH29">
-        <v>98</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ofWisconsin--Madison</t>
+        </is>
+      </c>
       <c r="B30">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C30">
-        <v>14035</v>
+        <v>15141</v>
       </c>
       <c r="D30">
-        <v>14981</v>
+        <v>16937</v>
       </c>
       <c r="E30">
-        <v>32196</v>
+        <v>35474</v>
       </c>
       <c r="F30">
-        <v>11624</v>
+        <v>12458</v>
       </c>
       <c r="G30">
-        <v>3184</v>
+        <v>3436</v>
       </c>
       <c r="H30">
-        <v>1918</v>
+        <v>2963</v>
       </c>
       <c r="K30">
-        <v>17596</v>
+        <v>26118</v>
       </c>
       <c r="L30">
-        <v>18019</v>
+        <v>27711</v>
       </c>
       <c r="M30">
-        <v>8828</v>
+        <v>14695</v>
       </c>
       <c r="N30">
-        <v>10322</v>
+        <v>17771</v>
       </c>
       <c r="O30">
-        <v>3078</v>
+        <v>3779</v>
       </c>
       <c r="P30">
-        <v>3519</v>
+        <v>4663</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+      <c r="S30">
+        <v>650</v>
+      </c>
+      <c r="T30">
+        <v>730</v>
       </c>
       <c r="U30">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="V30">
-        <v>760</v>
+        <v>780</v>
+      </c>
+      <c r="W30">
+        <v>1350</v>
+      </c>
+      <c r="X30">
+        <v>1480</v>
+      </c>
+      <c r="Y30">
+        <v>49</v>
+      </c>
+      <c r="Z30">
+        <v>45</v>
       </c>
       <c r="AC30">
-        <v>3858</v>
+        <v>3528</v>
       </c>
       <c r="AD30">
-        <v>1996</v>
+        <v>2075</v>
       </c>
       <c r="AE30">
-        <v>1128</v>
-      </c>
-      <c r="AF30">
-        <v>99</v>
+        <v>1136</v>
       </c>
       <c r="AG30">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="AH30">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>StonyBrook</t>
-        </is>
-      </c>
       <c r="B31">
-        <v>2022</v>
-      </c>
-      <c r="C31">
-        <v>8018</v>
-      </c>
-      <c r="D31">
-        <v>8388</v>
-      </c>
-      <c r="E31">
-        <v>17509</v>
-      </c>
-      <c r="F31">
-        <v>8201</v>
+        <v>2020</v>
       </c>
       <c r="G31">
-        <v>1743</v>
+        <v>3093</v>
       </c>
       <c r="H31">
-        <v>5891</v>
-      </c>
-      <c r="J31">
-        <v>87.83</v>
+        <v>2578</v>
+      </c>
+      <c r="K31">
+        <v>23046</v>
       </c>
       <c r="L31">
-        <v>22420</v>
+        <v>22895</v>
       </c>
       <c r="M31">
-        <v>8324</v>
+        <v>12600</v>
       </c>
       <c r="N31">
-        <v>11584</v>
+        <v>13689</v>
       </c>
       <c r="O31">
-        <v>1609</v>
+        <v>3438</v>
       </c>
       <c r="P31">
-        <v>1733</v>
+        <v>3818</v>
       </c>
       <c r="Q31">
-        <v>41</v>
-      </c>
-      <c r="S31">
-        <v>640</v>
-      </c>
-      <c r="T31">
-        <v>720</v>
+        <v>27</v>
       </c>
       <c r="U31">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="V31">
-        <v>780</v>
-      </c>
-      <c r="W31">
-        <v>1320</v>
-      </c>
-      <c r="X31">
-        <v>1480</v>
+        <v>770</v>
       </c>
       <c r="Y31">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AC31">
-        <v>4643</v>
+        <v>3525</v>
       </c>
       <c r="AD31">
-        <v>2515</v>
+        <v>1830</v>
       </c>
       <c r="AE31">
-        <v>1179</v>
+        <v>1010</v>
       </c>
       <c r="AG31">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="AH31">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>StonyBrook</t>
-        </is>
-      </c>
       <c r="B32">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C32">
-        <v>8140</v>
+        <v>14434</v>
       </c>
       <c r="D32">
-        <v>8558</v>
+        <v>15764</v>
       </c>
       <c r="E32">
-        <v>17999</v>
+        <v>33456</v>
       </c>
       <c r="F32">
-        <v>8609</v>
+        <v>11861</v>
       </c>
       <c r="G32">
-        <v>1838</v>
+        <v>3659</v>
       </c>
       <c r="H32">
-        <v>5622</v>
-      </c>
-      <c r="J32">
-        <v>89</v>
+        <v>2307</v>
       </c>
       <c r="K32">
-        <v>17177</v>
+        <v>21694</v>
       </c>
       <c r="L32">
-        <v>21649</v>
+        <v>22227</v>
       </c>
       <c r="M32">
-        <v>7809</v>
+        <v>11117</v>
       </c>
       <c r="N32">
-        <v>10850</v>
+        <v>12170</v>
       </c>
       <c r="O32">
-        <v>1588</v>
+        <v>3489</v>
       </c>
       <c r="P32">
-        <v>1819</v>
-      </c>
-      <c r="Q32">
-        <v>37</v>
-      </c>
-      <c r="S32">
-        <v>630</v>
-      </c>
-      <c r="T32">
-        <v>710</v>
+        <v>4045</v>
       </c>
       <c r="U32">
+        <v>680</v>
+      </c>
+      <c r="V32">
+        <v>780</v>
+      </c>
+      <c r="Z32">
+        <v>43.1</v>
+      </c>
+      <c r="AC32">
+        <v>3464</v>
+      </c>
+      <c r="AD32">
+        <v>1584</v>
+      </c>
+      <c r="AE32">
+        <v>889</v>
+      </c>
+      <c r="AF32">
+        <v>99</v>
+      </c>
+      <c r="AG32">
+        <v>99</v>
+      </c>
+      <c r="AH32">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33">
+        <v>2018</v>
+      </c>
+      <c r="C33">
+        <v>14181</v>
+      </c>
+      <c r="D33">
+        <v>15231</v>
+      </c>
+      <c r="E33">
+        <v>32648</v>
+      </c>
+      <c r="F33">
+        <v>11763</v>
+      </c>
+      <c r="G33">
+        <v>3558</v>
+      </c>
+      <c r="H33">
+        <v>2060</v>
+      </c>
+      <c r="K33">
+        <v>21306</v>
+      </c>
+      <c r="L33">
+        <v>21435</v>
+      </c>
+      <c r="M33">
+        <v>10418</v>
+      </c>
+      <c r="N33">
+        <v>11681</v>
+      </c>
+      <c r="O33">
+        <v>3241</v>
+      </c>
+      <c r="P33">
+        <v>3610</v>
+      </c>
+      <c r="U33">
         <v>670</v>
       </c>
-      <c r="V32">
-        <v>770</v>
-      </c>
-      <c r="W32">
-        <v>1320</v>
-      </c>
-      <c r="X32">
-        <v>1460</v>
-      </c>
-      <c r="Y32">
-        <v>44</v>
-      </c>
-      <c r="Z32">
-        <v>42.26</v>
-      </c>
-      <c r="AC32">
-        <v>4979</v>
-      </c>
-      <c r="AD32">
-        <v>2948</v>
-      </c>
-      <c r="AE32">
-        <v>1404</v>
-      </c>
-      <c r="AG32">
-        <v>2</v>
-      </c>
-      <c r="AH32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>StonyBrook</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>2020</v>
-      </c>
-      <c r="C33">
-        <v>8217</v>
-      </c>
-      <c r="D33">
-        <v>8369</v>
-      </c>
-      <c r="E33">
-        <v>18010</v>
-      </c>
-      <c r="F33">
-        <v>8772</v>
-      </c>
-      <c r="G33">
-        <v>1882</v>
-      </c>
-      <c r="H33">
-        <v>5318</v>
-      </c>
-      <c r="K33">
-        <v>17200</v>
-      </c>
-      <c r="L33">
-        <v>19883</v>
-      </c>
-      <c r="M33">
-        <v>8551</v>
-      </c>
-      <c r="N33">
-        <v>9587</v>
-      </c>
-      <c r="O33">
-        <v>1719</v>
-      </c>
-      <c r="P33">
-        <v>1587</v>
-      </c>
-      <c r="Q33">
+      <c r="V33">
+        <v>780</v>
+      </c>
+      <c r="AC33">
+        <v>3700</v>
+      </c>
+      <c r="AD33">
+        <v>1975</v>
+      </c>
+      <c r="AE33">
+        <v>1141</v>
+      </c>
+      <c r="AF33">
+        <v>98</v>
+      </c>
+      <c r="AG33">
+        <v>98</v>
+      </c>
+      <c r="AH33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34">
+        <v>2017</v>
+      </c>
+      <c r="C34">
+        <v>14035</v>
+      </c>
+      <c r="D34">
+        <v>14981</v>
+      </c>
+      <c r="E34">
+        <v>32196</v>
+      </c>
+      <c r="F34">
+        <v>11624</v>
+      </c>
+      <c r="G34">
+        <v>3184</v>
+      </c>
+      <c r="H34">
+        <v>1918</v>
+      </c>
+      <c r="K34">
+        <v>17596</v>
+      </c>
+      <c r="L34">
+        <v>18019</v>
+      </c>
+      <c r="M34">
+        <v>8828</v>
+      </c>
+      <c r="N34">
+        <v>10322</v>
+      </c>
+      <c r="O34">
+        <v>3078</v>
+      </c>
+      <c r="P34">
+        <v>3519</v>
+      </c>
+      <c r="U34">
+        <v>660</v>
+      </c>
+      <c r="V34">
+        <v>760</v>
+      </c>
+      <c r="AC34">
+        <v>3858</v>
+      </c>
+      <c r="AD34">
+        <v>1996</v>
+      </c>
+      <c r="AE34">
+        <v>1128</v>
+      </c>
+      <c r="AF34">
+        <v>99</v>
+      </c>
+      <c r="AG34">
+        <v>99</v>
+      </c>
+      <c r="AH34">
         <v>88</v>
-      </c>
-      <c r="S33">
-        <v>600</v>
-      </c>
-      <c r="T33">
-        <v>690</v>
-      </c>
-      <c r="U33">
-        <v>630</v>
-      </c>
-      <c r="V33">
-        <v>750</v>
-      </c>
-      <c r="W33">
-        <v>1240</v>
-      </c>
-      <c r="X33">
-        <v>1420</v>
-      </c>
-      <c r="Y33">
-        <v>44</v>
-      </c>
-      <c r="Z33">
-        <v>38.74</v>
-      </c>
-      <c r="AC33">
-        <v>5643</v>
-      </c>
-      <c r="AD33">
-        <v>3265</v>
-      </c>
-      <c r="AE33">
-        <v>1596</v>
-      </c>
-      <c r="AG33">
-        <v>3</v>
-      </c>
-      <c r="AH33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>A1StonyBrook</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>2019</v>
-      </c>
-      <c r="C34">
-        <v>8419</v>
-      </c>
-      <c r="D34">
-        <v>8278</v>
-      </c>
-      <c r="E34">
-        <v>17909</v>
-      </c>
-      <c r="F34">
-        <v>8905</v>
-      </c>
-      <c r="H34">
-        <v>4828</v>
-      </c>
-      <c r="I34">
-        <v>76</v>
-      </c>
-      <c r="J34">
-        <v>89</v>
-      </c>
-      <c r="K34">
-        <v>17409</v>
-      </c>
-      <c r="L34">
-        <v>19670</v>
-      </c>
-      <c r="M34">
-        <v>7732</v>
-      </c>
-      <c r="N34">
-        <v>8638</v>
-      </c>
-      <c r="O34">
-        <v>1722</v>
-      </c>
-      <c r="P34">
-        <v>1647</v>
-      </c>
-      <c r="Q34">
-        <v>86</v>
-      </c>
-      <c r="S34">
-        <v>590</v>
-      </c>
-      <c r="T34">
-        <v>690</v>
-      </c>
-      <c r="U34">
-        <v>640</v>
-      </c>
-      <c r="V34">
-        <v>750</v>
-      </c>
-      <c r="Y34">
-        <v>51</v>
-      </c>
-      <c r="Z34">
-        <v>35.79</v>
-      </c>
-      <c r="AC34">
-        <v>5860</v>
-      </c>
-      <c r="AD34">
-        <v>2912</v>
-      </c>
-      <c r="AE34">
-        <v>1562</v>
-      </c>
-      <c r="AF34">
-        <v>6</v>
-      </c>
-      <c r="AG34">
-        <v>13</v>
-      </c>
-      <c r="AH34">
-        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A1StonyBrook</t>
+          <t>StonyBrook</t>
         </is>
       </c>
       <c r="B35">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C35">
-        <v>8414</v>
+        <v>8018</v>
       </c>
       <c r="D35">
-        <v>7927</v>
+        <v>8388</v>
       </c>
       <c r="E35">
-        <v>17522</v>
+        <v>17509</v>
       </c>
       <c r="F35">
-        <v>8734</v>
+        <v>8201</v>
+      </c>
+      <c r="G35">
+        <v>1743</v>
       </c>
       <c r="H35">
-        <v>4520</v>
-      </c>
-      <c r="I35">
-        <v>73.8</v>
+        <v>5891</v>
       </c>
       <c r="J35">
-        <v>90</v>
-      </c>
-      <c r="K35">
-        <v>18046</v>
+        <v>87.83</v>
       </c>
       <c r="L35">
-        <v>19782</v>
+        <v>22420</v>
       </c>
       <c r="M35">
-        <v>7485</v>
+        <v>8324</v>
       </c>
       <c r="N35">
-        <v>8395</v>
+        <v>11584</v>
       </c>
       <c r="O35">
-        <v>1719</v>
+        <v>1609</v>
       </c>
       <c r="P35">
-        <v>1656</v>
+        <v>1733</v>
       </c>
       <c r="Q35">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="S35">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="T35">
+        <v>720</v>
+      </c>
+      <c r="U35">
         <v>680</v>
       </c>
-      <c r="U35">
-        <v>630</v>
-      </c>
       <c r="V35">
-        <v>740</v>
+        <v>780</v>
+      </c>
+      <c r="W35">
+        <v>1320</v>
+      </c>
+      <c r="X35">
+        <v>1480</v>
       </c>
       <c r="Y35">
         <v>47</v>
       </c>
+      <c r="Z35">
+        <v>43</v>
+      </c>
       <c r="AC35">
-        <v>7144</v>
+        <v>4643</v>
       </c>
       <c r="AD35">
-        <v>3218</v>
+        <v>2515</v>
       </c>
       <c r="AE35">
-        <v>1624</v>
-      </c>
-      <c r="AF35">
-        <v>6</v>
+        <v>1179</v>
       </c>
       <c r="AG35">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AH35">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A1StonyBrook</t>
+          <t>StonyBrook</t>
         </is>
       </c>
       <c r="B36">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C36">
-        <v>8630</v>
+        <v>8140</v>
       </c>
       <c r="D36">
-        <v>7582</v>
+        <v>8558</v>
       </c>
       <c r="E36">
-        <v>17364</v>
+        <v>17999</v>
       </c>
       <c r="F36">
-        <v>8625</v>
+        <v>8609</v>
+      </c>
+      <c r="G36">
+        <v>1838</v>
       </c>
       <c r="H36">
-        <v>4178</v>
-      </c>
-      <c r="I36">
-        <v>71.8</v>
+        <v>5622</v>
+      </c>
+      <c r="J36">
+        <v>89</v>
       </c>
       <c r="K36">
-        <v>17268</v>
+        <v>17177</v>
       </c>
       <c r="L36">
-        <v>18045</v>
+        <v>21649</v>
       </c>
       <c r="M36">
-        <v>7196</v>
+        <v>7809</v>
       </c>
       <c r="N36">
-        <v>7703</v>
+        <v>10850</v>
       </c>
       <c r="O36">
-        <v>1691</v>
+        <v>1588</v>
       </c>
       <c r="P36">
-        <v>1469</v>
+        <v>1819</v>
       </c>
       <c r="Q36">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="S36">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="T36">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="U36">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="V36">
-        <v>730</v>
+        <v>770</v>
+      </c>
+      <c r="W36">
+        <v>1320</v>
+      </c>
+      <c r="X36">
+        <v>1460</v>
       </c>
       <c r="Y36">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="Z36">
+        <v>42.26</v>
       </c>
       <c r="AC36">
-        <v>6891</v>
+        <v>4979</v>
       </c>
       <c r="AD36">
-        <v>2812</v>
+        <v>2948</v>
       </c>
       <c r="AE36">
-        <v>1511</v>
-      </c>
-      <c r="AF36">
-        <v>6</v>
+        <v>1404</v>
       </c>
       <c r="AG36">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH36">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CaseWesternReserve</t>
+          <t>StonyBrook</t>
         </is>
       </c>
       <c r="B37">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C37">
-        <v>3074</v>
+        <v>8217</v>
       </c>
       <c r="D37">
-        <v>2825</v>
+        <v>8369</v>
       </c>
       <c r="E37">
-        <v>6017</v>
+        <v>18010</v>
       </c>
       <c r="F37">
-        <v>6184</v>
+        <v>8772</v>
       </c>
       <c r="G37">
-        <v>852</v>
+        <v>1882</v>
       </c>
       <c r="H37">
-        <v>1510</v>
-      </c>
-      <c r="J37">
-        <v>92.8</v>
+        <v>5318</v>
       </c>
       <c r="K37">
-        <v>19838</v>
+        <v>17200</v>
       </c>
       <c r="L37">
-        <v>18863</v>
+        <v>19883</v>
       </c>
       <c r="M37">
-        <v>5357</v>
+        <v>8551</v>
       </c>
       <c r="N37">
-        <v>5250</v>
+        <v>9587</v>
       </c>
       <c r="O37">
-        <v>818</v>
+        <v>1719</v>
       </c>
       <c r="P37">
-        <v>735</v>
+        <v>1587</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="S37">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="T37">
+        <v>690</v>
+      </c>
+      <c r="U37">
+        <v>630</v>
+      </c>
+      <c r="V37">
         <v>750</v>
       </c>
-      <c r="U37">
-        <v>730</v>
-      </c>
-      <c r="V37">
-        <v>790</v>
-      </c>
       <c r="W37">
+        <v>1240</v>
+      </c>
+      <c r="X37">
         <v>1420</v>
       </c>
-      <c r="X37">
-        <v>1520</v>
-      </c>
       <c r="Y37">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="Z37">
-        <v>15.4</v>
-      </c>
-      <c r="AA37">
-        <v>1091</v>
-      </c>
-      <c r="AB37">
-        <v>352</v>
+        <v>38.74</v>
       </c>
       <c r="AC37">
-        <v>603</v>
+        <v>5643</v>
       </c>
       <c r="AD37">
-        <v>183</v>
+        <v>3265</v>
       </c>
       <c r="AE37">
-        <v>62</v>
+        <v>1596</v>
       </c>
       <c r="AG37">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AH37">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CaseWesternReserve</t>
-        </is>
+          <t>A1StonyBrook</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>2019</v>
       </c>
       <c r="C38">
-        <v>2983</v>
+        <v>8419</v>
       </c>
       <c r="D38">
-        <v>2678</v>
+        <v>8278</v>
       </c>
       <c r="E38">
-        <v>5792</v>
+        <v>17909</v>
       </c>
       <c r="F38">
-        <v>6350</v>
-      </c>
-      <c r="G38">
-        <v>782</v>
+        <v>8905</v>
       </c>
       <c r="H38">
-        <v>1399</v>
+        <v>4828</v>
+      </c>
+      <c r="I38">
+        <v>76</v>
+      </c>
+      <c r="J38">
+        <v>89</v>
       </c>
       <c r="K38">
-        <v>16971</v>
+        <v>17409</v>
       </c>
       <c r="L38">
-        <v>16261</v>
+        <v>19670</v>
       </c>
       <c r="M38">
-        <v>4951</v>
+        <v>7732</v>
       </c>
       <c r="N38">
-        <v>5098</v>
+        <v>8638</v>
       </c>
       <c r="O38">
-        <v>782</v>
+        <v>1722</v>
       </c>
       <c r="P38">
-        <v>824</v>
+        <v>1647</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="S38">
-        <v>680</v>
+        <v>590</v>
       </c>
       <c r="T38">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="U38">
-        <v>730</v>
+        <v>640</v>
       </c>
       <c r="V38">
-        <v>790</v>
-      </c>
-      <c r="W38">
-        <v>1420</v>
-      </c>
-      <c r="X38">
-        <v>1520</v>
+        <v>750</v>
       </c>
       <c r="Y38">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Z38">
-        <v>16.77</v>
-      </c>
-      <c r="AA38">
-        <v>888</v>
-      </c>
-      <c r="AB38">
-        <v>318</v>
+        <v>35.79</v>
       </c>
       <c r="AC38">
-        <v>602</v>
+        <v>5860</v>
       </c>
       <c r="AD38">
-        <v>240</v>
+        <v>2912</v>
       </c>
       <c r="AE38">
-        <v>74</v>
+        <v>1562</v>
+      </c>
+      <c r="AF38">
+        <v>6</v>
       </c>
       <c r="AG38">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CaseWesternReserve</t>
+          <t>A1StonyBrook</t>
         </is>
       </c>
       <c r="B39">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C39">
-        <v>2868</v>
+        <v>8414</v>
       </c>
       <c r="D39">
-        <v>2421</v>
+        <v>7927</v>
       </c>
       <c r="E39">
-        <v>5433</v>
+        <v>17522</v>
       </c>
       <c r="F39">
-        <v>6035</v>
-      </c>
-      <c r="G39">
-        <v>751</v>
+        <v>8734</v>
       </c>
       <c r="H39">
-        <v>1257</v>
+        <v>4520</v>
+      </c>
+      <c r="I39">
+        <v>73.8</v>
+      </c>
+      <c r="J39">
+        <v>90</v>
       </c>
       <c r="K39">
-        <v>15390</v>
+        <v>18046</v>
       </c>
       <c r="L39">
-        <v>13694</v>
+        <v>19782</v>
       </c>
       <c r="M39">
-        <v>4562</v>
+        <v>7485</v>
       </c>
       <c r="N39">
-        <v>4242</v>
+        <v>8395</v>
       </c>
       <c r="O39">
-        <v>706</v>
+        <v>1719</v>
       </c>
       <c r="P39">
-        <v>598</v>
+        <v>1656</v>
       </c>
       <c r="Q39">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="S39">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="T39">
-        <v>730</v>
+        <v>680</v>
       </c>
       <c r="U39">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="V39">
-        <v>790</v>
-      </c>
-      <c r="W39">
-        <v>1350</v>
-      </c>
-      <c r="X39">
-        <v>1490</v>
+        <v>740</v>
       </c>
       <c r="Y39">
-        <v>70</v>
-      </c>
-      <c r="Z39">
-        <v>7</v>
-      </c>
-      <c r="AA39">
-        <v>962</v>
-      </c>
-      <c r="AB39">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="AC39">
-        <v>570</v>
+        <v>7144</v>
       </c>
       <c r="AD39">
-        <v>191</v>
+        <v>3218</v>
       </c>
       <c r="AE39">
-        <v>63</v>
+        <v>1624</v>
+      </c>
+      <c r="AF39">
+        <v>6</v>
       </c>
       <c r="AG39">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH39">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CaseWesternReserve</t>
+          <t>A1StonyBrook</t>
         </is>
       </c>
       <c r="B40">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C40">
-        <v>2843</v>
+        <v>8630</v>
       </c>
       <c r="D40">
-        <v>2394</v>
+        <v>7582</v>
       </c>
       <c r="E40">
-        <v>5383</v>
+        <v>17364</v>
       </c>
       <c r="F40">
-        <v>6491</v>
-      </c>
-      <c r="G40">
-        <v>746</v>
+        <v>8625</v>
       </c>
       <c r="H40">
-        <v>1141</v>
+        <v>4178</v>
+      </c>
+      <c r="I40">
+        <v>71.8</v>
       </c>
       <c r="K40">
-        <v>15116</v>
+        <v>17268</v>
       </c>
       <c r="L40">
-        <v>13670</v>
+        <v>18045</v>
       </c>
       <c r="M40">
-        <v>3988</v>
+        <v>7196</v>
       </c>
       <c r="N40">
-        <v>3888</v>
+        <v>7703</v>
       </c>
       <c r="O40">
-        <v>710</v>
+        <v>1691</v>
       </c>
       <c r="P40">
-        <v>647</v>
+        <v>1469</v>
       </c>
       <c r="Q40">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S40">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="T40">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="U40">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="V40">
-        <v>790</v>
+        <v>730</v>
       </c>
       <c r="Y40">
-        <v>70</v>
-      </c>
-      <c r="AA40">
-        <v>687</v>
-      </c>
-      <c r="AB40">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="AC40">
-        <v>425</v>
+        <v>6891</v>
       </c>
       <c r="AD40">
-        <v>106</v>
+        <v>2812</v>
       </c>
       <c r="AE40">
-        <v>57</v>
+        <v>1511</v>
       </c>
       <c r="AF40">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="AG40">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AH40">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -3663,77 +3675,95 @@
           <t>CaseWesternReserve</t>
         </is>
       </c>
+      <c r="B41">
+        <v>2022</v>
+      </c>
       <c r="C41">
-        <v>2796</v>
+        <v>3074</v>
       </c>
       <c r="D41">
-        <v>2300</v>
+        <v>2825</v>
       </c>
       <c r="E41">
-        <v>5262</v>
+        <v>6017</v>
       </c>
       <c r="F41">
-        <v>6629</v>
+        <v>6184</v>
       </c>
       <c r="G41">
-        <v>719</v>
+        <v>852</v>
       </c>
       <c r="H41">
-        <v>1085</v>
+        <v>1510</v>
+      </c>
+      <c r="J41">
+        <v>92.8</v>
       </c>
       <c r="K41">
-        <v>13883</v>
+        <v>19838</v>
       </c>
       <c r="L41">
-        <v>12759</v>
+        <v>18863</v>
       </c>
       <c r="M41">
-        <v>3988</v>
+        <v>5357</v>
       </c>
       <c r="N41">
-        <v>3806</v>
+        <v>5250</v>
       </c>
       <c r="O41">
-        <v>738</v>
+        <v>818</v>
       </c>
       <c r="P41">
-        <v>655</v>
+        <v>735</v>
+      </c>
+      <c r="Q41">
+        <v>42</v>
+      </c>
+      <c r="S41">
+        <v>680</v>
       </c>
       <c r="T41">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="U41">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="V41">
         <v>790</v>
       </c>
+      <c r="W41">
+        <v>1420</v>
+      </c>
+      <c r="X41">
+        <v>1520</v>
+      </c>
       <c r="Y41">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="Z41">
+        <v>15.4</v>
       </c>
       <c r="AA41">
-        <v>566</v>
+        <v>1091</v>
       </c>
       <c r="AB41">
-        <v>238</v>
+        <v>352</v>
       </c>
       <c r="AC41">
-        <v>465</v>
+        <v>603</v>
       </c>
       <c r="AD41">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="AE41">
-        <v>35</v>
-      </c>
-      <c r="AF41">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AG41">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AH41">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -3743,242 +3773,422 @@
         </is>
       </c>
       <c r="C42">
-        <v>2763</v>
+        <v>2983</v>
       </c>
       <c r="D42">
-        <v>2215</v>
+        <v>2678</v>
       </c>
       <c r="E42">
-        <v>5150</v>
+        <v>5792</v>
       </c>
       <c r="F42">
-        <v>6674</v>
+        <v>6350</v>
       </c>
       <c r="G42">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="H42">
-        <v>1044</v>
+        <v>1399</v>
       </c>
       <c r="K42">
-        <v>13717</v>
+        <v>16971</v>
       </c>
       <c r="L42">
-        <v>11663</v>
+        <v>16261</v>
       </c>
       <c r="M42">
-        <v>4319</v>
+        <v>4951</v>
       </c>
       <c r="N42">
-        <v>4086</v>
+        <v>5098</v>
       </c>
       <c r="O42">
-        <v>742</v>
+        <v>782</v>
       </c>
       <c r="P42">
-        <v>566</v>
+        <v>824</v>
+      </c>
+      <c r="Q42">
+        <v>39</v>
+      </c>
+      <c r="S42">
+        <v>680</v>
       </c>
       <c r="T42">
-        <v>650</v>
+        <v>740</v>
       </c>
       <c r="U42">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="V42">
-        <v>780</v>
+        <v>790</v>
+      </c>
+      <c r="W42">
+        <v>1420</v>
+      </c>
+      <c r="X42">
+        <v>1520</v>
       </c>
       <c r="Y42">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="Z42">
+        <v>16.77</v>
+      </c>
+      <c r="AA42">
+        <v>888</v>
+      </c>
+      <c r="AB42">
+        <v>318</v>
       </c>
       <c r="AC42">
-        <v>487</v>
+        <v>602</v>
       </c>
       <c r="AD42">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="AE42">
-        <v>34</v>
-      </c>
-      <c r="AF42">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG42">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AH42">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IndianaBloomington</t>
+          <t>CaseWesternReserve</t>
         </is>
       </c>
       <c r="B43">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C43">
-        <v>17393</v>
+        <v>2868</v>
       </c>
       <c r="D43">
-        <v>17272</v>
+        <v>2421</v>
       </c>
       <c r="E43">
-        <v>35660</v>
+        <v>5433</v>
       </c>
       <c r="F43">
-        <v>11345</v>
+        <v>6035</v>
       </c>
       <c r="G43">
-        <v>1899</v>
+        <v>751</v>
       </c>
       <c r="H43">
-        <v>3248</v>
+        <v>1257</v>
+      </c>
+      <c r="K43">
+        <v>15390</v>
+      </c>
+      <c r="L43">
+        <v>13694</v>
+      </c>
+      <c r="M43">
+        <v>4562</v>
+      </c>
+      <c r="N43">
+        <v>4242</v>
+      </c>
+      <c r="O43">
+        <v>706</v>
+      </c>
+      <c r="P43">
+        <v>598</v>
+      </c>
+      <c r="Q43">
+        <v>69</v>
+      </c>
+      <c r="S43">
+        <v>640</v>
+      </c>
+      <c r="T43">
+        <v>730</v>
+      </c>
+      <c r="U43">
+        <v>700</v>
+      </c>
+      <c r="V43">
+        <v>790</v>
+      </c>
+      <c r="W43">
+        <v>1350</v>
+      </c>
+      <c r="X43">
+        <v>1490</v>
+      </c>
+      <c r="Y43">
+        <v>70</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+      <c r="AA43">
+        <v>962</v>
+      </c>
+      <c r="AB43">
+        <v>366</v>
       </c>
       <c r="AC43">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="AD43">
-        <v>399</v>
+        <v>191</v>
       </c>
       <c r="AE43">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="AG43">
-        <v>19.63</v>
+        <v>18</v>
       </c>
       <c r="AH43">
-        <v>19.84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IndianaBloomington</t>
+          <t>CaseWesternReserve</t>
         </is>
       </c>
       <c r="B44">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C44">
-        <v>16619</v>
+        <v>2843</v>
       </c>
       <c r="D44">
-        <v>16541</v>
+        <v>2394</v>
       </c>
       <c r="E44">
-        <v>34253</v>
+        <v>5383</v>
       </c>
       <c r="F44">
-        <v>11075</v>
+        <v>6491</v>
       </c>
       <c r="G44">
-        <v>1794</v>
+        <v>746</v>
       </c>
       <c r="H44">
-        <v>2804</v>
+        <v>1141</v>
+      </c>
+      <c r="K44">
+        <v>15116</v>
+      </c>
+      <c r="L44">
+        <v>13670</v>
+      </c>
+      <c r="M44">
+        <v>3988</v>
+      </c>
+      <c r="N44">
+        <v>3888</v>
+      </c>
+      <c r="O44">
+        <v>710</v>
+      </c>
+      <c r="P44">
+        <v>647</v>
+      </c>
+      <c r="Q44">
+        <v>66</v>
+      </c>
+      <c r="S44">
+        <v>640</v>
+      </c>
+      <c r="T44">
+        <v>720</v>
+      </c>
+      <c r="U44">
+        <v>700</v>
+      </c>
+      <c r="V44">
+        <v>790</v>
+      </c>
+      <c r="Y44">
+        <v>70</v>
+      </c>
+      <c r="AA44">
+        <v>687</v>
+      </c>
+      <c r="AB44">
+        <v>268</v>
       </c>
       <c r="AC44">
-        <v>510</v>
+        <v>425</v>
       </c>
       <c r="AD44">
-        <v>371</v>
+        <v>106</v>
       </c>
       <c r="AE44">
-        <v>231</v>
+        <v>57</v>
+      </c>
+      <c r="AF44">
+        <v>72</v>
       </c>
       <c r="AG44">
-        <v>17.65</v>
+        <v>36</v>
       </c>
       <c r="AH44">
-        <v>20.28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IndianaBloomington</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>2020</v>
+          <t>CaseWesternReserve</t>
+        </is>
       </c>
       <c r="C45">
-        <v>15807</v>
+        <v>2796</v>
       </c>
       <c r="D45">
-        <v>15825</v>
+        <v>2300</v>
       </c>
       <c r="E45">
-        <v>32986</v>
+        <v>5262</v>
       </c>
       <c r="F45">
-        <v>10078</v>
+        <v>6629</v>
       </c>
       <c r="G45">
-        <v>2010</v>
+        <v>719</v>
       </c>
       <c r="H45">
-        <v>2417</v>
+        <v>1085</v>
+      </c>
+      <c r="K45">
+        <v>13883</v>
+      </c>
+      <c r="L45">
+        <v>12759</v>
+      </c>
+      <c r="M45">
+        <v>3988</v>
+      </c>
+      <c r="N45">
+        <v>3806</v>
+      </c>
+      <c r="O45">
+        <v>738</v>
+      </c>
+      <c r="P45">
+        <v>655</v>
+      </c>
+      <c r="T45">
+        <v>650</v>
+      </c>
+      <c r="U45">
+        <v>700</v>
+      </c>
+      <c r="V45">
+        <v>790</v>
+      </c>
+      <c r="Y45">
+        <v>66</v>
+      </c>
+      <c r="AA45">
+        <v>566</v>
+      </c>
+      <c r="AB45">
+        <v>238</v>
       </c>
       <c r="AC45">
-        <v>646</v>
+        <v>465</v>
       </c>
       <c r="AD45">
-        <v>448</v>
+        <v>106</v>
       </c>
       <c r="AE45">
-        <v>274</v>
+        <v>35</v>
+      </c>
+      <c r="AF45">
+        <v>72</v>
       </c>
       <c r="AG45">
-        <v>20.94</v>
+        <v>28</v>
       </c>
       <c r="AH45">
-        <v>20.66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IndianaBloomington</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>2019</v>
+          <t>CaseWesternReserve</t>
+        </is>
       </c>
       <c r="C46">
-        <v>16133</v>
+        <v>2763</v>
       </c>
       <c r="D46">
-        <v>15848</v>
+        <v>2215</v>
       </c>
       <c r="E46">
-        <v>33084</v>
+        <v>5150</v>
       </c>
       <c r="F46">
-        <v>10176</v>
+        <v>6674</v>
       </c>
       <c r="G46">
-        <v>2745</v>
+        <v>685</v>
       </c>
       <c r="H46">
-        <v>2141</v>
+        <v>1044</v>
+      </c>
+      <c r="K46">
+        <v>13717</v>
+      </c>
+      <c r="L46">
+        <v>11663</v>
+      </c>
+      <c r="M46">
+        <v>4319</v>
+      </c>
+      <c r="N46">
+        <v>4086</v>
+      </c>
+      <c r="O46">
+        <v>742</v>
+      </c>
+      <c r="P46">
+        <v>566</v>
+      </c>
+      <c r="T46">
+        <v>650</v>
+      </c>
+      <c r="U46">
+        <v>690</v>
+      </c>
+      <c r="V46">
+        <v>780</v>
+      </c>
+      <c r="Y46">
+        <v>70</v>
       </c>
       <c r="AC46">
-        <v>702</v>
+        <v>487</v>
       </c>
       <c r="AD46">
-        <v>469</v>
+        <v>114</v>
       </c>
       <c r="AE46">
-        <v>317</v>
+        <v>34</v>
+      </c>
+      <c r="AF46">
+        <v>72</v>
       </c>
       <c r="AG46">
-        <v>18.74</v>
+        <v>27</v>
       </c>
       <c r="AH46">
-        <v>23.91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -4017,6 +4227,12 @@
       <c r="AE47">
         <v>253</v>
       </c>
+      <c r="AG47">
+        <v>19.63</v>
+      </c>
+      <c r="AH47">
+        <v>19.84</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4054,6 +4270,12 @@
       <c r="AE48">
         <v>231</v>
       </c>
+      <c r="AG48">
+        <v>17.65</v>
+      </c>
+      <c r="AH48">
+        <v>20.28</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4091,6 +4313,12 @@
       <c r="AE49">
         <v>274</v>
       </c>
+      <c r="AG49">
+        <v>20.94</v>
+      </c>
+      <c r="AH49">
+        <v>20.66</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4128,6 +4356,12 @@
       <c r="AE50">
         <v>317</v>
       </c>
+      <c r="AG50">
+        <v>18.74</v>
+      </c>
+      <c r="AH50">
+        <v>23.91</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4136,19 +4370,34 @@
         </is>
       </c>
       <c r="B51">
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="C51">
+        <v>17393</v>
+      </c>
+      <c r="D51">
+        <v>17272</v>
+      </c>
+      <c r="E51">
+        <v>35660</v>
+      </c>
+      <c r="F51">
+        <v>11345</v>
+      </c>
+      <c r="G51">
+        <v>1899</v>
       </c>
       <c r="H51">
-        <v>3651</v>
+        <v>3248</v>
       </c>
       <c r="AC51">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="AD51">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AE51">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52">
@@ -4158,34 +4407,34 @@
         </is>
       </c>
       <c r="B52">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C52">
-        <v>17393</v>
+        <v>16619</v>
       </c>
       <c r="D52">
-        <v>17272</v>
+        <v>16541</v>
       </c>
       <c r="E52">
-        <v>35660</v>
+        <v>34253</v>
       </c>
       <c r="F52">
-        <v>11345</v>
+        <v>11075</v>
       </c>
       <c r="G52">
-        <v>1899</v>
+        <v>1794</v>
       </c>
       <c r="H52">
-        <v>3248</v>
+        <v>2804</v>
       </c>
       <c r="AC52">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="AD52">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="AE52">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53">
@@ -4195,34 +4444,34 @@
         </is>
       </c>
       <c r="B53">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C53">
-        <v>16619</v>
+        <v>15807</v>
       </c>
       <c r="D53">
-        <v>16541</v>
+        <v>15825</v>
       </c>
       <c r="E53">
-        <v>34253</v>
+        <v>32986</v>
       </c>
       <c r="F53">
-        <v>11075</v>
+        <v>10078</v>
       </c>
       <c r="G53">
-        <v>1794</v>
+        <v>2010</v>
       </c>
       <c r="H53">
-        <v>2804</v>
+        <v>2417</v>
       </c>
       <c r="AC53">
-        <v>510</v>
+        <v>646</v>
       </c>
       <c r="AD53">
-        <v>371</v>
+        <v>448</v>
       </c>
       <c r="AE53">
-        <v>231</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54">
@@ -4232,34 +4481,34 @@
         </is>
       </c>
       <c r="B54">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C54">
-        <v>15807</v>
+        <v>16133</v>
       </c>
       <c r="D54">
-        <v>15825</v>
+        <v>15848</v>
       </c>
       <c r="E54">
-        <v>32986</v>
+        <v>33084</v>
       </c>
       <c r="F54">
-        <v>10078</v>
+        <v>10176</v>
       </c>
       <c r="G54">
-        <v>2010</v>
+        <v>2745</v>
       </c>
       <c r="H54">
-        <v>2417</v>
+        <v>2141</v>
       </c>
       <c r="AC54">
-        <v>646</v>
+        <v>702</v>
       </c>
       <c r="AD54">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="AE54">
-        <v>274</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55">
@@ -4269,719 +4518,852 @@
         </is>
       </c>
       <c r="B55">
-        <v>2019</v>
-      </c>
-      <c r="C55">
-        <v>16133</v>
-      </c>
-      <c r="D55">
-        <v>15848</v>
-      </c>
-      <c r="E55">
-        <v>33084</v>
-      </c>
-      <c r="F55">
-        <v>10176</v>
-      </c>
-      <c r="G55">
-        <v>2745</v>
+        <v>2023</v>
       </c>
       <c r="H55">
-        <v>2141</v>
+        <v>3651</v>
       </c>
       <c r="AC55">
-        <v>702</v>
+        <v>580</v>
       </c>
       <c r="AD55">
-        <v>469</v>
+        <v>391</v>
       </c>
       <c r="AE55">
-        <v>317</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CaliforniaState,LosAngeles</t>
+          <t>IndianaBloomington</t>
         </is>
       </c>
       <c r="B56">
         <v>2022</v>
       </c>
       <c r="C56">
-        <v>7649</v>
+        <v>17393</v>
       </c>
       <c r="D56">
-        <v>10875</v>
+        <v>17272</v>
       </c>
       <c r="E56">
-        <v>22536</v>
+        <v>35660</v>
       </c>
       <c r="F56">
-        <v>3493</v>
+        <v>11345</v>
       </c>
       <c r="G56">
-        <v>1140</v>
+        <v>1899</v>
       </c>
       <c r="H56">
-        <v>2407</v>
-      </c>
-      <c r="K56">
-        <v>13885</v>
-      </c>
-      <c r="L56">
-        <v>20056</v>
-      </c>
-      <c r="M56">
-        <v>11618</v>
-      </c>
-      <c r="N56">
-        <v>17889</v>
-      </c>
-      <c r="O56">
-        <v>1687</v>
-      </c>
-      <c r="P56">
-        <v>2028</v>
-      </c>
-      <c r="Q56">
-        <v>14</v>
-      </c>
-      <c r="Z56">
-        <v>1.54</v>
+        <v>3248</v>
       </c>
       <c r="AC56">
-        <v>16464</v>
+        <v>549</v>
       </c>
       <c r="AD56">
-        <v>12850</v>
+        <v>399</v>
       </c>
       <c r="AE56">
-        <v>2594</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CaliforniaState,LosAngeles</t>
+          <t>IndianaBloomington</t>
         </is>
       </c>
       <c r="B57">
         <v>2021</v>
       </c>
       <c r="C57">
-        <v>7776</v>
+        <v>16619</v>
       </c>
       <c r="D57">
-        <v>11752</v>
+        <v>16541</v>
       </c>
       <c r="E57">
-        <v>23484</v>
+        <v>34253</v>
       </c>
       <c r="F57">
-        <v>4032</v>
+        <v>11075</v>
       </c>
       <c r="G57">
-        <v>1233</v>
+        <v>1794</v>
       </c>
       <c r="H57">
-        <v>2606</v>
-      </c>
-      <c r="K57">
-        <v>11636</v>
-      </c>
-      <c r="L57">
-        <v>17587</v>
-      </c>
-      <c r="M57">
-        <v>10210</v>
-      </c>
-      <c r="N57">
-        <v>16249</v>
-      </c>
-      <c r="O57">
-        <v>1605</v>
-      </c>
-      <c r="P57">
-        <v>2292</v>
-      </c>
-      <c r="Q57">
-        <v>25</v>
-      </c>
-      <c r="S57">
-        <v>420</v>
-      </c>
-      <c r="T57">
-        <v>520</v>
-      </c>
-      <c r="U57">
-        <v>410</v>
-      </c>
-      <c r="V57">
-        <v>530</v>
-      </c>
-      <c r="W57">
-        <v>840</v>
-      </c>
-      <c r="X57">
-        <v>1040</v>
-      </c>
-      <c r="Z57">
-        <v>1.37</v>
+        <v>2804</v>
       </c>
       <c r="AC57">
-        <v>19790</v>
+        <v>510</v>
       </c>
       <c r="AD57">
-        <v>14830</v>
+        <v>371</v>
       </c>
       <c r="AE57">
-        <v>3916</v>
-      </c>
-      <c r="AG57">
-        <v>0.2</v>
-      </c>
-      <c r="AH57">
-        <v>0.3</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CaliforniaState,LosAngeles</t>
+          <t>IndianaBloomington</t>
         </is>
       </c>
       <c r="B58">
         <v>2020</v>
       </c>
       <c r="C58">
-        <v>7742</v>
+        <v>15807</v>
       </c>
       <c r="D58">
-        <v>11509</v>
+        <v>15825</v>
       </c>
       <c r="E58">
-        <v>22566</v>
+        <v>32986</v>
       </c>
       <c r="F58">
-        <v>3776</v>
+        <v>10078</v>
       </c>
       <c r="G58">
-        <v>1309</v>
+        <v>2010</v>
       </c>
       <c r="H58">
-        <v>2556</v>
-      </c>
-      <c r="K58">
-        <v>12827</v>
-      </c>
-      <c r="L58">
-        <v>18615</v>
-      </c>
-      <c r="M58">
-        <v>9087</v>
-      </c>
-      <c r="N58">
-        <v>14959</v>
-      </c>
-      <c r="O58">
-        <v>1554</v>
-      </c>
-      <c r="P58">
-        <v>2278</v>
-      </c>
-      <c r="Q58">
-        <v>97</v>
-      </c>
-      <c r="S58">
-        <v>440</v>
-      </c>
-      <c r="T58">
-        <v>530</v>
-      </c>
-      <c r="U58">
-        <v>430</v>
-      </c>
-      <c r="V58">
-        <v>530</v>
-      </c>
-      <c r="W58">
-        <v>890</v>
-      </c>
-      <c r="X58">
-        <v>1060</v>
-      </c>
-      <c r="Z58">
-        <v>1.1</v>
+        <v>2417</v>
       </c>
       <c r="AC58">
-        <v>20560</v>
+        <v>646</v>
       </c>
       <c r="AD58">
-        <v>12512</v>
+        <v>448</v>
       </c>
       <c r="AE58">
-        <v>3388</v>
-      </c>
-      <c r="AG58">
-        <v>0.25</v>
-      </c>
-      <c r="AH58">
-        <v>0.35</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A1CaliforniaState,LosAngeles</t>
+          <t>IndianaBloomington</t>
         </is>
       </c>
       <c r="B59">
         <v>2019</v>
       </c>
       <c r="C59">
-        <v>8165</v>
+        <v>16133</v>
       </c>
       <c r="D59">
-        <v>11444</v>
+        <v>15848</v>
       </c>
       <c r="E59">
-        <v>22626</v>
+        <v>33084</v>
       </c>
       <c r="F59">
-        <v>3734</v>
+        <v>10176</v>
       </c>
       <c r="G59">
-        <v>1509</v>
+        <v>2745</v>
       </c>
       <c r="H59">
-        <v>2809</v>
-      </c>
-      <c r="I59">
-        <v>51.5</v>
-      </c>
-      <c r="J59">
-        <v>80.8</v>
-      </c>
-      <c r="K59">
-        <v>13881</v>
-      </c>
-      <c r="L59">
-        <v>19760</v>
-      </c>
-      <c r="M59">
-        <v>6227</v>
-      </c>
-      <c r="N59">
-        <v>9857</v>
-      </c>
-      <c r="O59">
-        <v>1387</v>
-      </c>
-      <c r="P59">
-        <v>1843</v>
-      </c>
-      <c r="Q59">
-        <v>96</v>
-      </c>
-      <c r="S59">
-        <v>450</v>
-      </c>
-      <c r="T59">
-        <v>540</v>
-      </c>
-      <c r="U59">
-        <v>440</v>
-      </c>
-      <c r="V59">
-        <v>540</v>
-      </c>
-      <c r="Z59">
-        <v>1.16</v>
+        <v>2141</v>
       </c>
       <c r="AC59">
-        <v>21179</v>
+        <v>702</v>
       </c>
       <c r="AD59">
-        <v>10062</v>
+        <v>469</v>
       </c>
       <c r="AE59">
-        <v>2932</v>
-      </c>
-      <c r="AF59">
-        <v>0.52</v>
-      </c>
-      <c r="AG59">
-        <v>10.25</v>
-      </c>
-      <c r="AH59">
-        <v>10.46</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A1CaliforniaState,LosAngeles</t>
+          <t>CaliforniaState,LosAngeles</t>
         </is>
       </c>
       <c r="B60">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C60">
-        <v>8680</v>
+        <v>7649</v>
       </c>
       <c r="D60">
-        <v>11918</v>
+        <v>10875</v>
       </c>
       <c r="E60">
-        <v>24002</v>
+        <v>22536</v>
       </c>
       <c r="F60">
-        <v>3683</v>
+        <v>3493</v>
       </c>
       <c r="G60">
-        <v>1719</v>
+        <v>1140</v>
       </c>
       <c r="H60">
-        <v>3105</v>
-      </c>
-      <c r="J60">
-        <v>81.8</v>
+        <v>2407</v>
       </c>
       <c r="K60">
-        <v>16580</v>
+        <v>13885</v>
       </c>
       <c r="L60">
-        <v>23274</v>
+        <v>20056</v>
       </c>
       <c r="M60">
-        <v>6468</v>
+        <v>11618</v>
       </c>
       <c r="N60">
-        <v>10080</v>
+        <v>17889</v>
       </c>
       <c r="O60">
-        <v>1611</v>
+        <v>1687</v>
       </c>
       <c r="P60">
-        <v>2147</v>
+        <v>2028</v>
       </c>
       <c r="Q60">
-        <v>96</v>
-      </c>
-      <c r="S60">
-        <v>450</v>
-      </c>
-      <c r="T60">
-        <v>540</v>
-      </c>
-      <c r="U60">
-        <v>440</v>
-      </c>
-      <c r="V60">
-        <v>540</v>
+        <v>14</v>
+      </c>
+      <c r="Z60">
+        <v>1.54</v>
       </c>
       <c r="AC60">
-        <v>20846</v>
+        <v>16464</v>
       </c>
       <c r="AD60">
-        <v>10811</v>
+        <v>12850</v>
       </c>
       <c r="AE60">
-        <v>2991</v>
-      </c>
-      <c r="AF60">
-        <v>0.28</v>
-      </c>
-      <c r="AG60">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AH60">
-        <v>0.86</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A1CaliforniaState,LosAngeles</t>
-        </is>
+          <t>CaliforniaState,LosAngeles</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>2021</v>
       </c>
       <c r="C61">
-        <v>8892</v>
+        <v>7776</v>
       </c>
       <c r="D61">
-        <v>11989</v>
+        <v>11752</v>
       </c>
       <c r="E61">
-        <v>24629</v>
+        <v>23484</v>
       </c>
       <c r="F61">
-        <v>3624</v>
+        <v>4032</v>
       </c>
       <c r="G61">
-        <v>1705</v>
+        <v>1233</v>
       </c>
       <c r="H61">
-        <v>3324</v>
-      </c>
-      <c r="I61">
-        <v>46.79</v>
-      </c>
-      <c r="J61">
-        <v>79.92</v>
+        <v>2606</v>
       </c>
       <c r="K61">
-        <v>15446</v>
+        <v>11636</v>
       </c>
       <c r="L61">
-        <v>21950</v>
+        <v>17587</v>
       </c>
       <c r="M61">
-        <v>6796</v>
+        <v>10210</v>
       </c>
       <c r="N61">
-        <v>10573</v>
+        <v>16249</v>
       </c>
       <c r="O61">
-        <v>1521</v>
+        <v>1605</v>
       </c>
       <c r="P61">
-        <v>1884</v>
+        <v>2292</v>
       </c>
       <c r="Q61">
-        <v>95.11</v>
+        <v>25</v>
+      </c>
+      <c r="S61">
+        <v>420</v>
+      </c>
+      <c r="T61">
+        <v>520</v>
       </c>
       <c r="U61">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="V61">
-        <v>540</v>
+        <v>530</v>
+      </c>
+      <c r="W61">
+        <v>840</v>
+      </c>
+      <c r="X61">
+        <v>1040</v>
+      </c>
+      <c r="Z61">
+        <v>1.37</v>
       </c>
       <c r="AC61">
-        <v>20615</v>
+        <v>19790</v>
       </c>
       <c r="AD61">
-        <v>13076</v>
+        <v>14830</v>
       </c>
       <c r="AE61">
-        <v>3318</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
+        <v>3916</v>
+      </c>
+      <c r="AG61">
+        <v>0.2</v>
       </c>
       <c r="AH61">
-        <v>3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Agnes Scott</t>
+          <t>CaliforniaState,LosAngeles</t>
         </is>
       </c>
       <c r="B62">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>7742</v>
       </c>
       <c r="D62">
-        <v>976</v>
+        <v>11509</v>
       </c>
       <c r="E62">
-        <v>1006</v>
+        <v>22566</v>
+      </c>
+      <c r="F62">
+        <v>3776</v>
       </c>
       <c r="G62">
-        <v>35</v>
+        <v>1309</v>
       </c>
       <c r="H62">
-        <v>63</v>
-      </c>
-      <c r="I62">
-        <v>77</v>
-      </c>
-      <c r="J62">
-        <v>79</v>
+        <v>2556</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>12827</v>
       </c>
       <c r="L62">
-        <v>1879</v>
+        <v>18615</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>9087</v>
       </c>
       <c r="N62">
-        <v>1250</v>
+        <v>14959</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1554</v>
       </c>
       <c r="P62">
-        <v>276</v>
+        <v>2278</v>
       </c>
       <c r="Q62">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="S62">
-        <v>590</v>
+        <v>440</v>
       </c>
       <c r="T62">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="U62">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="V62">
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="W62">
-        <v>1140</v>
+        <v>890</v>
       </c>
       <c r="X62">
-        <v>1340</v>
-      </c>
-      <c r="Y62">
-        <v>29</v>
+        <v>1060</v>
       </c>
       <c r="Z62">
-        <v>32</v>
-      </c>
-      <c r="AA62">
-        <v>16</v>
-      </c>
-      <c r="AB62">
-        <v>14</v>
+        <v>1.1</v>
       </c>
       <c r="AC62">
-        <v>72</v>
+        <v>20560</v>
       </c>
       <c r="AD62">
-        <v>25</v>
+        <v>12512</v>
       </c>
       <c r="AE62">
-        <v>7</v>
-      </c>
-      <c r="AF62">
-        <v>38</v>
+        <v>3388</v>
       </c>
       <c r="AG62">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>87</v>
-      </c>
-      <c r="AJ62">
-        <v>79</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>A1CaliforniaState,LosAngeles</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>2019</v>
+      </c>
+      <c r="C63">
+        <v>8165</v>
+      </c>
+      <c r="D63">
+        <v>11444</v>
+      </c>
+      <c r="E63">
+        <v>22626</v>
+      </c>
+      <c r="F63">
+        <v>3734</v>
+      </c>
+      <c r="G63">
+        <v>1509</v>
+      </c>
+      <c r="H63">
+        <v>2809</v>
+      </c>
+      <c r="I63">
+        <v>51.5</v>
+      </c>
+      <c r="J63">
+        <v>80.8</v>
+      </c>
+      <c r="K63">
+        <v>13881</v>
+      </c>
+      <c r="L63">
+        <v>19760</v>
+      </c>
+      <c r="M63">
+        <v>6227</v>
+      </c>
+      <c r="N63">
+        <v>9857</v>
+      </c>
+      <c r="O63">
+        <v>1387</v>
+      </c>
+      <c r="P63">
+        <v>1843</v>
+      </c>
+      <c r="Q63">
+        <v>96</v>
+      </c>
+      <c r="S63">
+        <v>450</v>
+      </c>
+      <c r="T63">
+        <v>540</v>
+      </c>
+      <c r="U63">
+        <v>440</v>
+      </c>
+      <c r="V63">
+        <v>540</v>
+      </c>
+      <c r="Z63">
+        <v>1.16</v>
+      </c>
+      <c r="AC63">
+        <v>21179</v>
+      </c>
+      <c r="AD63">
+        <v>10062</v>
+      </c>
+      <c r="AE63">
+        <v>2932</v>
+      </c>
+      <c r="AF63">
+        <v>0.52</v>
+      </c>
+      <c r="AG63">
+        <v>10.25</v>
+      </c>
+      <c r="AH63">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A1CaliforniaState,LosAngeles</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>2018</v>
+      </c>
+      <c r="C64">
+        <v>8680</v>
+      </c>
+      <c r="D64">
+        <v>11918</v>
+      </c>
+      <c r="E64">
+        <v>24002</v>
+      </c>
+      <c r="F64">
+        <v>3683</v>
+      </c>
+      <c r="G64">
+        <v>1719</v>
+      </c>
+      <c r="H64">
+        <v>3105</v>
+      </c>
+      <c r="J64">
+        <v>81.8</v>
+      </c>
+      <c r="K64">
+        <v>16580</v>
+      </c>
+      <c r="L64">
+        <v>23274</v>
+      </c>
+      <c r="M64">
+        <v>6468</v>
+      </c>
+      <c r="N64">
+        <v>10080</v>
+      </c>
+      <c r="O64">
+        <v>1611</v>
+      </c>
+      <c r="P64">
+        <v>2147</v>
+      </c>
+      <c r="Q64">
+        <v>96</v>
+      </c>
+      <c r="S64">
+        <v>450</v>
+      </c>
+      <c r="T64">
+        <v>540</v>
+      </c>
+      <c r="U64">
+        <v>440</v>
+      </c>
+      <c r="V64">
+        <v>540</v>
+      </c>
+      <c r="AC64">
+        <v>20846</v>
+      </c>
+      <c r="AD64">
+        <v>10811</v>
+      </c>
+      <c r="AE64">
+        <v>2991</v>
+      </c>
+      <c r="AF64">
+        <v>0.28</v>
+      </c>
+      <c r="AG64">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AH64">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A1CaliforniaState,LosAngeles</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>8892</v>
+      </c>
+      <c r="D65">
+        <v>11989</v>
+      </c>
+      <c r="E65">
+        <v>24629</v>
+      </c>
+      <c r="F65">
+        <v>3624</v>
+      </c>
+      <c r="G65">
+        <v>1705</v>
+      </c>
+      <c r="H65">
+        <v>3324</v>
+      </c>
+      <c r="I65">
+        <v>46.79</v>
+      </c>
+      <c r="J65">
+        <v>79.92</v>
+      </c>
+      <c r="K65">
+        <v>15446</v>
+      </c>
+      <c r="L65">
+        <v>21950</v>
+      </c>
+      <c r="M65">
+        <v>6796</v>
+      </c>
+      <c r="N65">
+        <v>10573</v>
+      </c>
+      <c r="O65">
+        <v>1521</v>
+      </c>
+      <c r="P65">
+        <v>1884</v>
+      </c>
+      <c r="Q65">
+        <v>95.11</v>
+      </c>
+      <c r="U65">
+        <v>440</v>
+      </c>
+      <c r="V65">
+        <v>540</v>
+      </c>
+      <c r="AC65">
+        <v>20615</v>
+      </c>
+      <c r="AD65">
+        <v>13076</v>
+      </c>
+      <c r="AE65">
+        <v>3318</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>Agnes Scott</t>
         </is>
       </c>
-      <c r="B63">
+      <c r="B66">
+        <v>2022</v>
+      </c>
+      <c r="C66">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>976</v>
+      </c>
+      <c r="E66">
+        <v>1006</v>
+      </c>
+      <c r="G66">
+        <v>35</v>
+      </c>
+      <c r="H66">
+        <v>63</v>
+      </c>
+      <c r="I66">
+        <v>77</v>
+      </c>
+      <c r="J66">
+        <v>79</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1879</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1250</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>276</v>
+      </c>
+      <c r="Q66">
+        <v>33</v>
+      </c>
+      <c r="S66">
+        <v>590</v>
+      </c>
+      <c r="T66">
+        <v>700</v>
+      </c>
+      <c r="U66">
+        <v>540</v>
+      </c>
+      <c r="V66">
+        <v>650</v>
+      </c>
+      <c r="W66">
+        <v>1140</v>
+      </c>
+      <c r="X66">
+        <v>1340</v>
+      </c>
+      <c r="Y66">
+        <v>29</v>
+      </c>
+      <c r="Z66">
+        <v>32</v>
+      </c>
+      <c r="AA66">
+        <v>16</v>
+      </c>
+      <c r="AB66">
+        <v>14</v>
+      </c>
+      <c r="AC66">
+        <v>72</v>
+      </c>
+      <c r="AD66">
+        <v>25</v>
+      </c>
+      <c r="AE66">
+        <v>7</v>
+      </c>
+      <c r="AF66">
+        <v>38</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>87</v>
+      </c>
+      <c r="AJ66">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Agnes Scott</t>
+        </is>
+      </c>
+      <c r="B67">
         <v>2021</v>
       </c>
-      <c r="C63">
+      <c r="C67">
         <v>12</v>
       </c>
-      <c r="D63">
+      <c r="D67">
         <v>1038</v>
       </c>
-      <c r="E63">
+      <c r="E67">
         <v>1063</v>
       </c>
-      <c r="G63">
+      <c r="G67">
         <v>32</v>
       </c>
-      <c r="H63">
+      <c r="H67">
         <v>61</v>
       </c>
-      <c r="I63">
+      <c r="I67">
         <v>75</v>
       </c>
-      <c r="J63">
+      <c r="J67">
         <v>84</v>
       </c>
-      <c r="K63">
+      <c r="K67">
         <v>0</v>
       </c>
-      <c r="L63">
+      <c r="L67">
         <v>1625</v>
       </c>
-      <c r="M63">
+      <c r="M67">
         <v>0</v>
       </c>
-      <c r="N63">
+      <c r="N67">
         <v>1135</v>
       </c>
-      <c r="O63">
+      <c r="O67">
         <v>0</v>
       </c>
-      <c r="P63">
+      <c r="P67">
         <v>301</v>
       </c>
-      <c r="Q63">
+      <c r="Q67">
         <v>31</v>
       </c>
-      <c r="S63">
+      <c r="S67">
         <v>610</v>
       </c>
-      <c r="T63">
+      <c r="T67">
         <v>730</v>
       </c>
-      <c r="U63">
+      <c r="U67">
         <v>560</v>
       </c>
-      <c r="V63">
+      <c r="V67">
         <v>680</v>
       </c>
-      <c r="W63">
+      <c r="W67">
         <v>1170</v>
       </c>
-      <c r="X63">
+      <c r="X67">
         <v>1390</v>
       </c>
-      <c r="Y63">
+      <c r="Y67">
         <v>33</v>
       </c>
-      <c r="Z63">
+      <c r="Z67">
         <v>37</v>
       </c>
-      <c r="AA63">
+      <c r="AA67">
         <v>33</v>
       </c>
-      <c r="AB63">
+      <c r="AB67">
         <v>27</v>
       </c>
-      <c r="AC63">
+      <c r="AC67">
         <v>50</v>
       </c>
-      <c r="AD63">
+      <c r="AD67">
         <v>15</v>
       </c>
-      <c r="AE63">
+      <c r="AE67">
         <v>7</v>
       </c>
-      <c r="AF63">
+      <c r="AF67">
         <v>37</v>
       </c>
-      <c r="AG63">
+      <c r="AG67">
         <v>0</v>
       </c>
-      <c r="AH63">
+      <c r="AH67">
         <v>0</v>
       </c>
-      <c r="AI63">
+      <c r="AI67">
         <v>85</v>
       </c>
-      <c r="AJ63">
+      <c r="AJ67">
         <v>77</v>
       </c>
     </row>
